--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>2019-05-04</t>
+  </si>
+  <si>
+    <t>2019-05-05</t>
   </si>
 </sst>
 </file>
@@ -119,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,9 +137,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,68 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,28 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -253,36 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,11 +483,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,37 +567,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,154 +585,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1092,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A37" sqref="$A37:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1105,7 +1104,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1122,7 +1121,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1139,7 +1138,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1156,7 +1155,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1173,7 +1172,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1190,7 +1189,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1207,7 +1206,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1224,7 +1223,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1241,7 +1240,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1258,7 +1257,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1275,7 +1274,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1292,7 +1291,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1309,7 +1308,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1326,7 +1325,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1343,7 +1342,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1360,7 +1359,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1377,7 +1376,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1394,7 +1393,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1411,7 +1410,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1428,7 +1427,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1445,7 +1444,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1462,7 +1461,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1479,7 +1478,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1496,7 +1495,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1513,7 +1512,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1530,7 +1529,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1547,7 +1546,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1564,7 +1563,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1581,7 +1580,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1598,7 +1597,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1615,7 +1614,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1632,7 +1631,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1649,7 +1648,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1666,7 +1665,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1683,7 +1682,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1700,7 +1699,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1714,6 +1713,23 @@
       </c>
       <c r="E36" s="1">
         <v>163</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>2019-05-05</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>广州（邱哥）</t>
+  </si>
+  <si>
+    <t>dt1555</t>
+  </si>
+  <si>
+    <t>汽车G-20190505-全国</t>
+  </si>
+  <si>
+    <t>dt1556</t>
+  </si>
+  <si>
+    <t>股票G-20190505-广东，湖南-5000</t>
   </si>
 </sst>
 </file>
@@ -122,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,8 +154,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,127 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -289,13 +307,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,25 +391,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,121 +463,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +498,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,21 +537,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -524,17 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,11 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,10 +755,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,20 +1109,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="$A37:$XFD37"/>
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="98.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1121,7 +1140,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1138,7 +1157,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1155,7 +1174,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1172,7 +1191,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1189,7 +1208,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1206,7 +1225,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1223,7 +1242,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1240,7 +1259,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1257,7 +1276,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1274,7 +1293,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1291,7 +1310,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1308,7 +1327,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1325,7 +1344,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1342,7 +1361,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1359,7 +1378,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1376,7 +1395,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1393,7 +1412,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1410,7 +1429,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1427,7 +1446,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1444,7 +1463,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1461,7 +1480,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1478,7 +1497,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1495,7 +1514,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1512,7 +1531,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1529,7 +1548,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1546,7 +1565,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1563,7 +1582,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1580,7 +1599,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1597,7 +1616,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1614,7 +1633,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1631,7 +1650,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1648,7 +1667,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1665,7 +1684,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1682,7 +1701,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1699,7 +1718,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1715,21 +1734,55 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:5">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1899</v>
       </c>
     </row>
   </sheetData>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -133,6 +133,75 @@
   </si>
   <si>
     <t>股票G-20190505-广东，湖南-5000</t>
+  </si>
+  <si>
+    <t>2019-05-07</t>
+  </si>
+  <si>
+    <t>dt1565</t>
+  </si>
+  <si>
+    <t>投资理财GJ-20190506-全国-1W</t>
+  </si>
+  <si>
+    <t>dt1398</t>
+  </si>
+  <si>
+    <t>消防教育-20190416-华总(上海、河南、河北、江苏、四川、山东、辽宁、吉林、内蒙古)-1天</t>
+  </si>
+  <si>
+    <t>dt1438</t>
+  </si>
+  <si>
+    <t>成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1468</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190423-吴总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1543</t>
+  </si>
+  <si>
+    <t>信用卡-20190430-先总(广东、江西、湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1566</t>
+  </si>
+  <si>
+    <t>POS招商-20190506-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1567</t>
+  </si>
+  <si>
+    <t>成人教育-20190506-深总(湖南、湖北、浙江、广东、贵州)-2天</t>
+  </si>
+  <si>
+    <t>dt1568</t>
+  </si>
+  <si>
+    <t>股票-20190506-华总(江苏省,浙江省,福建省)-1天</t>
+  </si>
+  <si>
+    <t>dt1569</t>
+  </si>
+  <si>
+    <t>现金贷-20190506-曹总(浙江省)-1天</t>
+  </si>
+  <si>
+    <t>dt1570</t>
+  </si>
+  <si>
+    <t>信用卡-20190506-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1571</t>
+  </si>
+  <si>
+    <t>养生理疗-20190506-邢总(全国)-3天</t>
   </si>
 </sst>
 </file>
@@ -140,8 +209,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -154,17 +223,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,97 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,9 +291,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +319,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -307,19 +376,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,13 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,145 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,41 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +581,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +624,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,7 +648,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,10 +824,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,21 +1178,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="$A40:$XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="98.125" customWidth="1"/>
+    <col min="4" max="4" width="87.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1140,7 +1209,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1157,7 +1226,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1174,7 +1243,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1191,7 +1260,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1208,7 +1277,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1225,7 +1294,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1242,7 +1311,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1259,7 +1328,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1276,7 +1345,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1293,7 +1362,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1310,7 +1379,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1327,7 +1396,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1344,7 +1413,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1361,7 +1430,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1378,7 +1447,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1395,7 +1464,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1412,7 +1481,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1429,7 +1498,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1446,7 +1515,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1463,7 +1532,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1480,7 +1549,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1497,7 +1566,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1514,7 +1583,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1531,7 +1600,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1548,7 +1617,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1565,7 +1634,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1582,7 +1651,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1599,7 +1668,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1616,7 +1685,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1633,7 +1702,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1650,7 +1719,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1667,7 +1736,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1684,7 +1753,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1701,7 +1770,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1718,7 +1787,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1735,7 +1804,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1752,39 +1821,262 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>1899</v>
       </c>
     </row>
+    <row r="40" s="2" customFormat="1" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2">
+        <v>31016</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2">
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1"/>
+    <row r="54" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -202,6 +202,33 @@
   </si>
   <si>
     <t>养生理疗-20190506-邢总(全国)-3天</t>
+  </si>
+  <si>
+    <t>2019-05-08</t>
+  </si>
+  <si>
+    <t>dt1205</t>
+  </si>
+  <si>
+    <t>推广页-20190321-综合(全国)</t>
+  </si>
+  <si>
+    <t>dt1579</t>
+  </si>
+  <si>
+    <t>保健-20190507-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1580</t>
+  </si>
+  <si>
+    <t>电商-20190507-综合(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1584</t>
+  </si>
+  <si>
+    <t>汽车-20190507-邢总(陕西、青海)-2天</t>
   </si>
 </sst>
 </file>
@@ -223,9 +250,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,86 +295,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,7 +325,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,13 +403,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,31 +535,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,120 +577,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,12 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +594,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,6 +624,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -596,6 +667,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,59 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +714,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,17 +1205,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="$A40:$XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="87.375" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1854,229 +1881,417 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:5">
+    <row r="40" s="1" customFormat="1" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:5">
+    <row r="41" s="1" customFormat="1" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>608</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:5">
+    <row r="42" s="1" customFormat="1" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>3501</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:5">
+    <row r="43" s="1" customFormat="1" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>3380</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:5">
+    <row r="44" s="1" customFormat="1" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>843</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:5">
+    <row r="45" s="1" customFormat="1" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>31016</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:5">
+    <row r="46" s="1" customFormat="1" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>9301</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:5">
+    <row r="47" s="1" customFormat="1" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>6618</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:5">
+    <row r="48" s="1" customFormat="1" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>1490</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:5">
+    <row r="49" s="1" customFormat="1" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>1290</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:5">
+    <row r="50" s="1" customFormat="1" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>511</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:5">
+    <row r="51" s="1" customFormat="1" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:5">
+    <row r="52" s="1" customFormat="1" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>832</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1"/>
-    <row r="54" s="2" customFormat="1"/>
+    <row r="53" s="1" customFormat="1" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="2">
+        <v>31099</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="2">
+        <v>12165</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="2">
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="88">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -229,6 +229,57 @@
   </si>
   <si>
     <t>汽车-20190507-邢总(陕西、青海)-2天</t>
+  </si>
+  <si>
+    <t>2019-05-09</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>dt1598</t>
+  </si>
+  <si>
+    <t>车型-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1599</t>
+  </si>
+  <si>
+    <t>车型GQ-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1604</t>
+  </si>
+  <si>
+    <t>dt836</t>
+  </si>
+  <si>
+    <t>健身-20181229B-北京市天津市重庆市河北省山西省内蒙古辽宁省吉林省黑龙江省山东省河南省湖北省湖南省四川省陕西省甘肃省宁夏青海省新疆</t>
+  </si>
+  <si>
+    <t>dt1600</t>
+  </si>
+  <si>
+    <t>POS-20190508-张总(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1601</t>
+  </si>
+  <si>
+    <t>奶茶加盟-20190508-艾总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1602</t>
+  </si>
+  <si>
+    <t>现金贷-20190508-曹总(浙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1603</t>
+  </si>
+  <si>
+    <t>装修-20190508-邢总(四川)-5天</t>
   </si>
 </sst>
 </file>
@@ -236,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -250,8 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +317,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,21 +346,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,70 +439,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,43 +454,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,139 +598,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,15 +675,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -657,16 +723,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,21 +745,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,19 +765,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,112 +786,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,17 +1256,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -2136,162 +2187,415 @@
         <v>711</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:5">
+    <row r="55" s="1" customFormat="1" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>3795</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:5">
+    <row r="56" s="1" customFormat="1" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>3164</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:5">
+    <row r="57" s="1" customFormat="1" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>1023</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:5">
+    <row r="58" s="1" customFormat="1" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>31099</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:5">
+    <row r="59" s="1" customFormat="1" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>1492</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:5">
+    <row r="60" s="1" customFormat="1" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>819</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:5">
+    <row r="61" s="1" customFormat="1" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>12165</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:5">
+    <row r="62" s="1" customFormat="1" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>9230</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:5">
+    <row r="63" s="1" customFormat="1" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>6413</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3"/>
-    </row>
+    <row r="64" s="2" customFormat="1" spans="1:5">
+      <c r="A64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="2">
+        <v>68835</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="1:5">
+      <c r="A67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="1:5">
+      <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="2">
+        <v>31886</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="2">
+        <v>6497</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:5">
+      <c r="A75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2">
+        <v>24408</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:5">
+      <c r="A76" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:5">
+      <c r="A78" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$78</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="110">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -234,9 +237,6 @@
     <t>2019-05-09</t>
   </si>
   <si>
-    <t>广东</t>
-  </si>
-  <si>
     <t>dt1598</t>
   </si>
   <si>
@@ -280,6 +280,75 @@
   </si>
   <si>
     <t>装修-20190508-邢总(四川)-5天</t>
+  </si>
+  <si>
+    <t>2019-05-10</t>
+  </si>
+  <si>
+    <t>dt1433</t>
+  </si>
+  <si>
+    <t>手机游戏-20190419-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1610</t>
+  </si>
+  <si>
+    <t>POS招商-20190509-宁总(全国)-1天</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>dt1619</t>
+  </si>
+  <si>
+    <t>POS机招商G-20190510-全国</t>
+  </si>
+  <si>
+    <t>dt1620</t>
+  </si>
+  <si>
+    <t>成人教育-20190510-武总(江西、湖南、湖北、安徽、河南)-2天</t>
+  </si>
+  <si>
+    <t>dt1621</t>
+  </si>
+  <si>
+    <t>代理记账-20190510-智总(山东)-3天</t>
+  </si>
+  <si>
+    <t>dt1622</t>
+  </si>
+  <si>
+    <t>股票-20190510-霸总(辽宁、黑龙江、河北)-2天</t>
+  </si>
+  <si>
+    <t>dt1623</t>
+  </si>
+  <si>
+    <t>理财-20190510-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1624</t>
+  </si>
+  <si>
+    <t>美妆-20190510-凌总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1625</t>
+  </si>
+  <si>
+    <t>现金贷-20190510-曹总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1626</t>
+  </si>
+  <si>
+    <t>小额贷款-20190510-帮总(上海)-3天</t>
+  </si>
+  <si>
+    <t>2019-05-12</t>
   </si>
 </sst>
 </file>
@@ -287,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -298,6 +367,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,7 +395,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -324,8 +409,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,29 +454,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -378,7 +478,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,46 +507,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +529,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,13 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,97 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +649,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,13 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,13 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,6 +714,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,39 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -740,8 +785,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,133 +834,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -902,10 +971,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,21 +1325,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="91" customWidth="1"/>
+    <col min="4" max="4" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1287,7 +1356,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1304,7 +1373,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1321,7 +1390,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1338,7 +1407,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1355,7 +1424,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1372,7 +1441,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1389,7 +1458,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1406,7 +1475,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1423,7 +1492,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1440,7 +1509,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1457,7 +1526,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1474,7 +1543,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1491,7 +1560,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1508,7 +1577,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1525,7 +1594,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1542,7 +1611,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1559,7 +1628,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1576,7 +1645,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1593,7 +1662,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1610,7 +1679,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1627,7 +1696,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1644,7 +1713,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1661,7 +1730,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1678,7 +1747,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1695,7 +1764,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1712,7 +1781,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1729,7 +1798,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1746,7 +1815,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1763,7 +1832,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1780,7 +1849,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1797,7 +1866,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1814,7 +1883,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1831,7 +1900,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1848,7 +1917,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1865,7 +1934,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1882,7 +1951,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1899,7 +1968,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1916,7 +1985,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1933,7 +2002,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1950,7 +2019,7 @@
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1967,7 +2036,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:5">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1984,7 +2053,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:5">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2001,7 +2070,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:5">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2018,7 +2087,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2035,7 +2104,7 @@
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2052,7 +2121,7 @@
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2069,7 +2138,7 @@
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:5">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2086,7 +2155,7 @@
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2103,7 +2172,7 @@
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2120,7 +2189,7 @@
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:5">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2137,7 +2206,7 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:5">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2154,7 +2223,7 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:5">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2171,7 +2240,7 @@
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:5">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2188,7 +2257,7 @@
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:5">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2205,7 +2274,7 @@
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:5">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2222,7 +2291,7 @@
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2239,7 +2308,7 @@
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:5">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2256,7 +2325,7 @@
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:5">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2273,7 +2342,7 @@
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:5">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2290,7 +2359,7 @@
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:5">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2307,7 +2376,7 @@
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:5">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2324,7 +2393,7 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:5">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2340,262 +2409,992 @@
         <v>6413</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:5">
-      <c r="A64" s="3" t="s">
+    <row r="64" s="1" customFormat="1" spans="1:5">
+      <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="1">
+        <v>68835</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="2">
-        <v>68835</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" spans="1:5">
-      <c r="A65" s="3" t="s">
+      <c r="D65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="1">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:5">
+      <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="2">
-        <v>6327</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:5">
-      <c r="A66" s="3" t="s">
+      <c r="D66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:5">
+      <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="2">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="67" s="2" customFormat="1" spans="1:5">
-      <c r="A67" s="3" t="s">
+      <c r="D67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:5">
+      <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="2">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="68" s="2" customFormat="1" spans="1:5">
-      <c r="A68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>831</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:5">
-      <c r="A69" s="3" t="s">
+    <row r="69" s="1" customFormat="1" spans="1:5">
+      <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>3372</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:5">
-      <c r="A70" s="3" t="s">
+    <row r="70" s="1" customFormat="1" spans="1:5">
+      <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>3142</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:5">
-      <c r="A71" s="3" t="s">
+    <row r="71" s="1" customFormat="1" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>1089</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:5">
-      <c r="A72" s="3" t="s">
+    <row r="72" s="1" customFormat="1" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>31886</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:5">
-      <c r="A73" s="3" t="s">
+    <row r="73" s="1" customFormat="1" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:5">
-      <c r="A74" s="3" t="s">
+    <row r="74" s="1" customFormat="1" spans="1:5">
+      <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>6497</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:5">
-      <c r="A75" s="3" t="s">
+    <row r="75" s="1" customFormat="1" spans="1:5">
+      <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="1">
+        <v>24408</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="2">
-        <v>24408</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="1:5">
-      <c r="A76" s="3" t="s">
+      <c r="D76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="1">
+        <v>25881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="3">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="3">
+        <v>25109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="2">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:5">
-      <c r="A77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="E88" s="3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="2">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="1:5">
-      <c r="A78" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E89" s="3">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="2">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1"/>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="3">
+        <v>26366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="3">
+        <v>9616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="3">
+        <v>22773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="3">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" s="3">
+        <v>99002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E114" s="3">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" s="3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E117" s="3">
+        <v>18851</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E119" s="3">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E120" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" s="3">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="111">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>2019-05-12</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
   </si>
 </sst>
 </file>
@@ -357,9 +360,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -371,10 +374,84 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,8 +464,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,52 +487,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,47 +503,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,13 +526,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,19 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,31 +616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,25 +640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,31 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,19 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +688,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,22 +720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,35 +765,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,6 +788,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -822,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,10 +974,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,21 +1328,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:E121"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="64.75" customWidth="1"/>
+    <col min="4" max="4" width="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1356,7 +1359,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1373,7 +1376,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1390,7 +1393,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1407,7 +1410,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1424,7 +1427,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1441,7 +1444,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1458,7 +1461,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1475,7 +1478,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1492,7 +1495,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1509,7 +1512,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1526,7 +1529,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1543,7 +1546,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1560,7 +1563,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1577,7 +1580,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1611,7 +1614,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1628,7 +1631,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1645,7 +1648,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1662,7 +1665,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1679,7 +1682,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1696,7 +1699,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1713,7 +1716,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1730,7 +1733,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1781,7 +1784,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1798,7 +1801,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1815,7 +1818,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1832,7 +1835,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1849,7 +1852,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1866,7 +1869,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1883,7 +1886,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1900,7 +1903,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1917,7 +1920,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1934,7 +1937,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1951,7 +1954,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1968,7 +1971,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1985,7 +1988,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2002,7 +2005,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2019,7 +2022,7 @@
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2036,7 +2039,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:5">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2053,7 +2056,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:5">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2070,7 +2073,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2087,7 +2090,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2104,7 +2107,7 @@
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2121,7 +2124,7 @@
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2138,7 +2141,7 @@
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:5">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2155,7 +2158,7 @@
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2172,7 +2175,7 @@
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2189,7 +2192,7 @@
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:5">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2206,7 +2209,7 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:5">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2223,7 +2226,7 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:5">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2240,7 +2243,7 @@
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:5">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2257,7 +2260,7 @@
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:5">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2274,7 +2277,7 @@
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:5">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2291,7 +2294,7 @@
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2308,7 +2311,7 @@
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:5">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2325,7 +2328,7 @@
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:5">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2342,7 +2345,7 @@
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:5">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2359,7 +2362,7 @@
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:5">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2376,7 +2379,7 @@
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:5">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2393,7 +2396,7 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:5">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2410,7 +2413,7 @@
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:5">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2427,7 +2430,7 @@
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:5">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2444,7 +2447,7 @@
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:5">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2461,7 +2464,7 @@
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:5">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2478,7 +2481,7 @@
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:5">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2495,7 +2498,7 @@
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:5">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2512,7 +2515,7 @@
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:5">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2529,7 +2532,7 @@
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:5">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2546,7 +2549,7 @@
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2563,7 +2566,7 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:5">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2580,7 +2583,7 @@
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:5">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2597,7 +2600,7 @@
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:5">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2614,7 +2617,7 @@
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:5">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2631,7 +2634,7 @@
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:5">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2648,7 +2651,7 @@
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:5">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2665,7 +2668,7 @@
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:5">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2682,717 +2685,853 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="1">
         <v>763</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="1">
         <v>1078</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="1">
         <v>12107</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="1">
         <v>8123</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="1">
         <v>1128</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="1">
         <v>1728</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="1">
         <v>770</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <v>25109</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="1">
         <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="1">
         <v>1123</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="1">
         <v>3348</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="1">
         <v>26366</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="1">
         <v>9616</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="1">
         <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="1">
         <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="1">
         <v>1117</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="1">
         <v>1048</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="1">
         <v>1543</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="1">
         <v>559</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="1">
         <v>22773</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="1">
         <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="1">
         <v>1182</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="1">
         <v>4159</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="1">
         <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="1">
         <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="1">
         <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="1">
         <v>99002</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="1">
         <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="1">
         <v>665</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="1">
         <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="1">
         <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="1">
         <v>392</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="1">
         <v>961</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="1">
         <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="1">
         <v>636</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="1">
         <v>18851</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="1">
         <v>1165</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="1">
         <v>4110</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="1">
         <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="1">
         <v>252</v>
+      </c>
+    </row>
+    <row r="122" s="2" customFormat="1" spans="1:5">
+      <c r="A122" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="123" s="2" customFormat="1" spans="1:5">
+      <c r="A123" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" spans="1:5">
+      <c r="A124" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1" spans="1:5">
+      <c r="A125" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E125" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="1" spans="1:5">
+      <c r="A126" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E126" s="2">
+        <v>17198</v>
+      </c>
+    </row>
+    <row r="127" s="2" customFormat="1" spans="1:5">
+      <c r="A127" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="128" s="2" customFormat="1" spans="1:5">
+      <c r="A128" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" s="2" customFormat="1" spans="1:5">
+      <c r="A129" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E129" s="2">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="124">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -352,6 +352,45 @@
   </si>
   <si>
     <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>2019-05-14</t>
+  </si>
+  <si>
+    <t>dt1637</t>
+  </si>
+  <si>
+    <t>汽车昂科拉2018-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1638</t>
+  </si>
+  <si>
+    <t>汽车比亚迪e1-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1641</t>
+  </si>
+  <si>
+    <t>汽车上汽荣威i6plus-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1502</t>
+  </si>
+  <si>
+    <t>k12-20190425-曹总(湖南、湖北、江西、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1645</t>
+  </si>
+  <si>
+    <t>股票配资-20190513-张总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1646</t>
+  </si>
+  <si>
+    <t>理财-20190513-拓总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -360,8 +399,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -373,60 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,34 +427,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,11 +451,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,11 +496,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,7 +565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +589,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,43 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,13 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +673,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,73 +727,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,16 +760,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,21 +789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -774,16 +798,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -817,6 +841,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -825,10 +864,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,133 +876,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,17 +1367,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A130" sqref="$A130:$XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="91" customWidth="1"/>
+    <col min="4" max="4" width="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -3398,141 +3437,453 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" spans="1:5">
+    <row r="122" s="1" customFormat="1" spans="1:5">
       <c r="A122" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1">
         <v>723</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" spans="1:5">
+    <row r="123" s="1" customFormat="1" spans="1:5">
       <c r="A123" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" spans="1:5">
+    <row r="124" s="1" customFormat="1" spans="1:5">
       <c r="A124" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="1">
         <v>327</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" spans="1:5">
+    <row r="125" s="1" customFormat="1" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1">
         <v>631</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" spans="1:5">
+    <row r="126" s="1" customFormat="1" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1">
         <v>17198</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" spans="1:5">
+    <row r="127" s="1" customFormat="1" spans="1:5">
       <c r="A127" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1">
         <v>1290</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:5">
+    <row r="128" s="1" customFormat="1" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" spans="1:5">
+    <row r="129" s="1" customFormat="1" spans="1:5">
       <c r="A129" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <v>250</v>
       </c>
+    </row>
+    <row r="130" s="2" customFormat="1" spans="1:5">
+      <c r="A130" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E130" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" spans="1:5">
+      <c r="A131" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="132" s="2" customFormat="1" spans="1:5">
+      <c r="A132" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" s="2" customFormat="1" spans="1:5">
+      <c r="A133" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" s="2" customFormat="1" spans="1:5">
+      <c r="A134" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="135" s="2" customFormat="1" spans="1:5">
+      <c r="A135" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" s="2" customFormat="1" spans="1:5">
+      <c r="A136" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="137" s="2" customFormat="1" spans="1:5">
+      <c r="A137" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E137" s="2">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="1" spans="1:5">
+      <c r="A138" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="139" s="2" customFormat="1" spans="1:5">
+      <c r="A139" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="140" s="2" customFormat="1" spans="1:5">
+      <c r="A140" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="141" s="2" customFormat="1" spans="1:5">
+      <c r="A141" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E141" s="2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142" s="2" customFormat="1" spans="1:5">
+      <c r="A142" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142" s="2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="143" s="2" customFormat="1" spans="1:5">
+      <c r="A143" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="144" s="2" customFormat="1" spans="1:5">
+      <c r="A144" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" s="2" customFormat="1" spans="1:5">
+      <c r="A145" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E145" s="2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="146" s="2" customFormat="1" spans="1:5">
+      <c r="A146" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E146" s="2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="147" s="2" customFormat="1" spans="1:5">
+      <c r="A147" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" s="2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="135">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -391,6 +391,39 @@
   </si>
   <si>
     <t>理财-20190513-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>2019-05-15</t>
+  </si>
+  <si>
+    <t>dt1652</t>
+  </si>
+  <si>
+    <t>手游1G-20190514-全国-1天（5W）</t>
+  </si>
+  <si>
+    <t>dt1653</t>
+  </si>
+  <si>
+    <t>手游2G-20190514-全国（5W）</t>
+  </si>
+  <si>
+    <t>dt1655</t>
+  </si>
+  <si>
+    <t>CMA培训-20190514-华总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1656</t>
+  </si>
+  <si>
+    <t>股票-20190514-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1658</t>
+  </si>
+  <si>
+    <t>消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</t>
   </si>
 </sst>
 </file>
@@ -398,10 +431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -413,23 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,45 +469,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +483,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,22 +491,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +513,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +616,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,139 +766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,21 +789,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -798,46 +816,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,6 +839,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -864,10 +897,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,133 +909,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,17 +1400,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A130" sqref="$A130:$XFD147"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A148" sqref="$A148:$XFD165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="92" customWidth="1"/>
+    <col min="4" max="4" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -3573,317 +3606,617 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" spans="1:5">
+    <row r="130" s="1" customFormat="1" spans="1:5">
       <c r="A130" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <v>299</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:5">
+    <row r="131" s="1" customFormat="1" spans="1:5">
       <c r="A131" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:5">
+    <row r="132" s="1" customFormat="1" spans="1:5">
       <c r="A132" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:5">
+    <row r="133" s="1" customFormat="1" spans="1:5">
       <c r="A133" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1">
         <v>384</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" spans="1:5">
+    <row r="134" s="1" customFormat="1" spans="1:5">
       <c r="A134" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <v>702</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:5">
+    <row r="135" s="1" customFormat="1" spans="1:5">
       <c r="A135" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:5">
+    <row r="136" s="1" customFormat="1" spans="1:5">
       <c r="A136" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <v>3063</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" spans="1:5">
+    <row r="137" s="1" customFormat="1" spans="1:5">
       <c r="A137" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1">
         <v>5667</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:5">
+    <row r="138" s="1" customFormat="1" spans="1:5">
       <c r="A138" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1">
         <v>887</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" spans="1:5">
+    <row r="139" s="1" customFormat="1" spans="1:5">
       <c r="A139" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1">
         <v>1260</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" spans="1:5">
+    <row r="140" s="1" customFormat="1" spans="1:5">
       <c r="A140" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1">
         <v>1513</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" spans="1:5">
+    <row r="141" s="1" customFormat="1" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1">
         <v>567</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" spans="1:5">
+    <row r="142" s="1" customFormat="1" spans="1:5">
       <c r="A142" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1">
         <v>584</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" spans="1:5">
+    <row r="143" s="1" customFormat="1" spans="1:5">
       <c r="A143" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1">
         <v>1549</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" spans="1:5">
+    <row r="144" s="1" customFormat="1" spans="1:5">
       <c r="A144" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" spans="1:5">
+    <row r="145" s="1" customFormat="1" spans="1:5">
       <c r="A145" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1">
         <v>905</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" spans="1:5">
+    <row r="146" s="1" customFormat="1" spans="1:5">
       <c r="A146" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1">
         <v>596</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" spans="1:5">
+    <row r="147" s="1" customFormat="1" spans="1:5">
       <c r="A147" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="1">
         <v>593</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="3"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="3"/>
+    <row r="148" s="2" customFormat="1" spans="1:5">
+      <c r="A148" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="149" s="2" customFormat="1" spans="1:5">
+      <c r="A149" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E149" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="1" spans="1:5">
+      <c r="A150" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="151" s="2" customFormat="1" spans="1:5">
+      <c r="A151" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E151" s="2">
+        <v>48625</v>
+      </c>
+    </row>
+    <row r="152" s="2" customFormat="1" spans="1:5">
+      <c r="A152" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="2">
+        <v>49008</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" spans="1:5">
+      <c r="A153" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" spans="1:5">
+      <c r="A154" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" s="2" customFormat="1" spans="1:5">
+      <c r="A155" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="156" s="2" customFormat="1" spans="1:5">
+      <c r="A156" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" spans="1:5">
+      <c r="A157" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="1" spans="1:5">
+      <c r="A158" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="1" spans="1:5">
+      <c r="A159" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E159" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="1" spans="1:5">
+      <c r="A160" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="161" s="2" customFormat="1" spans="1:5">
+      <c r="A161" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E161" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="1" spans="1:5">
+      <c r="A162" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E162" s="2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="163" s="2" customFormat="1" spans="1:5">
+      <c r="A163" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E163" s="2">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="164" s="2" customFormat="1" spans="1:5">
+      <c r="A164" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E164" s="2">
+        <v>99457</v>
+      </c>
+    </row>
+    <row r="165" s="2" customFormat="1" spans="1:5">
+      <c r="A165" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1678</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="139">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</t>
+  </si>
+  <si>
+    <t>2019-05-16</t>
+  </si>
+  <si>
+    <t>广州(邓总)</t>
+  </si>
+  <si>
+    <t>dt1614</t>
+  </si>
+  <si>
+    <t>贷款</t>
   </si>
 </sst>
 </file>
@@ -433,8 +445,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -445,8 +457,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,22 +565,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,101 +586,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,13 +610,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,67 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,67 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +724,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,6 +801,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,34 +828,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -864,17 +867,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,133 +921,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1400,17 +1412,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A148" sqref="$A148:$XFD165"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="55.75" customWidth="1"/>
+    <col min="4" max="4" width="71.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -3912,310 +3924,616 @@
         <v>593</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" spans="1:5">
+    <row r="148" s="1" customFormat="1" spans="1:5">
       <c r="A148" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1">
         <v>1060</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:5">
+    <row r="149" s="1" customFormat="1" spans="1:5">
       <c r="A149" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" spans="1:5">
+    <row r="150" s="1" customFormat="1" spans="1:5">
       <c r="A150" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" spans="1:5">
+    <row r="151" s="1" customFormat="1" spans="1:5">
       <c r="A151" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1">
         <v>48625</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" spans="1:5">
+    <row r="152" s="1" customFormat="1" spans="1:5">
       <c r="A152" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1">
         <v>49008</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" spans="1:5">
+    <row r="153" s="1" customFormat="1" spans="1:5">
       <c r="A153" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:5">
+    <row r="154" s="1" customFormat="1" spans="1:5">
       <c r="A154" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:5">
+    <row r="155" s="1" customFormat="1" spans="1:5">
       <c r="A155" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1">
         <v>2912</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:5">
+    <row r="156" s="1" customFormat="1" spans="1:5">
       <c r="A156" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1">
         <v>969</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:5">
+    <row r="157" s="1" customFormat="1" spans="1:5">
       <c r="A157" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1">
         <v>1849</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:5">
+    <row r="158" s="1" customFormat="1" spans="1:5">
       <c r="A158" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1">
         <v>1984</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:5">
+    <row r="159" s="1" customFormat="1" spans="1:5">
       <c r="A159" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1">
         <v>594</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" spans="1:5">
+    <row r="160" s="1" customFormat="1" spans="1:5">
       <c r="A160" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1">
         <v>1366</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" spans="1:5">
+    <row r="161" s="1" customFormat="1" spans="1:5">
       <c r="A161" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" spans="1:5">
+    <row r="162" s="1" customFormat="1" spans="1:5">
       <c r="A162" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1">
         <v>993</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:5">
+    <row r="163" s="1" customFormat="1" spans="1:5">
       <c r="A163" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1">
         <v>2915</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" spans="1:5">
+    <row r="164" s="1" customFormat="1" spans="1:5">
       <c r="A164" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="1">
         <v>99457</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" spans="1:5">
+    <row r="165" s="1" customFormat="1" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="1">
         <v>1678</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" spans="1:5">
+      <c r="A166" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E166" s="2">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="1" spans="1:5">
+      <c r="A167" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E167" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="1" spans="1:5">
+      <c r="A168" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1" spans="1:5">
+      <c r="A169" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E169" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" spans="1:5">
+      <c r="A170" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E170" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="1" spans="1:5">
+      <c r="A171" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E171" s="2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="1" spans="1:5">
+      <c r="A172" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" s="2" customFormat="1" spans="1:5">
+      <c r="A173" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" s="2">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="174" s="2" customFormat="1" spans="1:5">
+      <c r="A174" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="1" spans="1:5">
+      <c r="A175" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" spans="1:5">
+      <c r="A176" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E176" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="177" s="2" customFormat="1" spans="1:5">
+      <c r="A177" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="178" s="2" customFormat="1" spans="1:5">
+      <c r="A178" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E178" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" s="2" customFormat="1" spans="1:5">
+      <c r="A179" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="1" spans="1:5">
+      <c r="A180" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E180" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="181" s="2" customFormat="1" spans="1:5">
+      <c r="A181" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E181" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" s="2" customFormat="1" spans="1:5">
+      <c r="A182" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E182" s="2">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="183" s="2" customFormat="1" spans="1:5">
+      <c r="A183" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E183" s="2">
+        <v>1926</v>
       </c>
     </row>
   </sheetData>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="158">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -436,6 +436,63 @@
   </si>
   <si>
     <t>贷款</t>
+  </si>
+  <si>
+    <t>2019-05-17</t>
+  </si>
+  <si>
+    <t>dt1689</t>
+  </si>
+  <si>
+    <t>手游3G-20190514-全国-3天（2.5W）</t>
+  </si>
+  <si>
+    <t>dt1690</t>
+  </si>
+  <si>
+    <t>手游4G-20190514-全国-3天(2.5W)</t>
+  </si>
+  <si>
+    <t>dt1681</t>
+  </si>
+  <si>
+    <t>POS-20190516-深总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1682</t>
+  </si>
+  <si>
+    <t>POS-20190516-张总综合(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1684</t>
+  </si>
+  <si>
+    <t>消防考证-20190516-深总(贵州、云南、重庆、江苏、浙江、上海、北京、天津、河南)-4天</t>
+  </si>
+  <si>
+    <t>dt1685</t>
+  </si>
+  <si>
+    <t>信用卡-20190516-王总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1686</t>
+  </si>
+  <si>
+    <t>招商加盟-20190516-自用(全国)-3天</t>
+  </si>
+  <si>
+    <t>2019-05-18</t>
+  </si>
+  <si>
+    <t>2019-05-19</t>
+  </si>
+  <si>
+    <t>dt1695</t>
+  </si>
+  <si>
+    <t>教育培训-20190517-武总(江西、湖南、湖北、安徽、河南、陕西)-3天</t>
   </si>
 </sst>
 </file>
@@ -443,10 +500,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -457,24 +514,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,9 +557,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +589,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -527,16 +598,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,27 +620,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,6 +635,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -595,7 +652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,13 +673,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,13 +733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,25 +757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,55 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,25 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,15 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -824,6 +872,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,21 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -867,26 +930,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +949,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,10 +966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,67 +978,67 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,13 +1047,13 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,49 +1062,49 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,17 +1469,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="71.125" customWidth="1"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -4230,310 +4287,1160 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" spans="1:5">
+    <row r="166" s="1" customFormat="1" spans="1:5">
       <c r="A166" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="1">
         <v>2855</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" spans="1:5">
+    <row r="167" s="1" customFormat="1" spans="1:5">
       <c r="A167" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" spans="1:5">
+    <row r="168" s="1" customFormat="1" spans="1:5">
       <c r="A168" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="1">
         <v>1048</v>
       </c>
     </row>
-    <row r="169" s="2" customFormat="1" spans="1:5">
+    <row r="169" s="1" customFormat="1" spans="1:5">
       <c r="A169" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="170" s="2" customFormat="1" spans="1:5">
+    <row r="170" s="1" customFormat="1" spans="1:5">
       <c r="A170" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="1">
         <v>422</v>
       </c>
     </row>
-    <row r="171" s="2" customFormat="1" spans="1:5">
+    <row r="171" s="1" customFormat="1" spans="1:5">
       <c r="A171" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="2" t="s">
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="1">
         <v>842</v>
       </c>
     </row>
-    <row r="172" s="2" customFormat="1" spans="1:5">
+    <row r="172" s="1" customFormat="1" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="2" t="s">
+      <c r="B172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:5">
+    <row r="173" s="1" customFormat="1" spans="1:5">
       <c r="A173" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="B173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="1">
         <v>2898</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" spans="1:5">
+    <row r="174" s="1" customFormat="1" spans="1:5">
       <c r="A174" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="2" t="s">
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="1">
         <v>1872</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:5">
+    <row r="175" s="1" customFormat="1" spans="1:5">
       <c r="A175" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="2" t="s">
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="1">
         <v>1783</v>
       </c>
     </row>
-    <row r="176" s="2" customFormat="1" spans="1:5">
+    <row r="176" s="1" customFormat="1" spans="1:5">
       <c r="A176" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="2" t="s">
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="1">
         <v>578</v>
       </c>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:5">
+    <row r="177" s="1" customFormat="1" spans="1:5">
       <c r="A177" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="2" t="s">
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="1">
         <v>1331</v>
       </c>
     </row>
-    <row r="178" s="2" customFormat="1" spans="1:5">
+    <row r="178" s="1" customFormat="1" spans="1:5">
       <c r="A178" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="2" t="s">
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="1" spans="1:5">
+    <row r="179" s="1" customFormat="1" spans="1:5">
       <c r="A179" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="2" t="s">
+      <c r="B179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="1">
         <v>1434</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:5">
+    <row r="180" s="1" customFormat="1" spans="1:5">
       <c r="A180" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="2" t="s">
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="1">
         <v>528</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:5">
+    <row r="181" s="1" customFormat="1" spans="1:5">
       <c r="A181" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="2" t="s">
+      <c r="B181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="1">
         <v>537</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:5">
+    <row r="182" s="1" customFormat="1" spans="1:5">
       <c r="A182" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C182" s="2" t="s">
+      <c r="B182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="1">
         <v>3264</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" spans="1:5">
+    <row r="183" s="1" customFormat="1" spans="1:5">
       <c r="A183" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="2" t="s">
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="1">
         <v>1926</v>
+      </c>
+    </row>
+    <row r="184" s="2" customFormat="1" spans="1:5">
+      <c r="A184" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E184" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="185" s="2" customFormat="1" spans="1:5">
+      <c r="A185" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E185" s="2">
+        <v>24301</v>
+      </c>
+    </row>
+    <row r="186" s="2" customFormat="1" spans="1:5">
+      <c r="A186" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E186" s="2">
+        <v>24446</v>
+      </c>
+    </row>
+    <row r="187" s="2" customFormat="1" spans="1:5">
+      <c r="A187" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E187" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="188" s="2" customFormat="1" spans="1:5">
+      <c r="A188" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" s="2" customFormat="1" spans="1:5">
+      <c r="A189" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E189" s="2">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="190" s="2" customFormat="1" spans="1:5">
+      <c r="A190" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E190" s="2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="191" s="2" customFormat="1" spans="1:5">
+      <c r="A191" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="192" s="2" customFormat="1" spans="1:5">
+      <c r="A192" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E192" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="193" s="2" customFormat="1" spans="1:5">
+      <c r="A193" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E193" s="2">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="194" s="2" customFormat="1" spans="1:5">
+      <c r="A194" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E194" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="195" s="2" customFormat="1" spans="1:5">
+      <c r="A195" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E195" s="2">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="196" s="2" customFormat="1" spans="1:5">
+      <c r="A196" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E196" s="2">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="197" s="2" customFormat="1" spans="1:5">
+      <c r="A197" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="198" s="2" customFormat="1" spans="1:5">
+      <c r="A198" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E198" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" s="2" customFormat="1" spans="1:5">
+      <c r="A199" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E199" s="2">
+        <v>23428</v>
+      </c>
+    </row>
+    <row r="200" s="2" customFormat="1" spans="1:5">
+      <c r="A200" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E200" s="2">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="201" s="2" customFormat="1" spans="1:5">
+      <c r="A201" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E201" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="202" s="2" customFormat="1" spans="1:5">
+      <c r="A202" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E202" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" s="2" customFormat="1" spans="1:5">
+      <c r="A203" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E203" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" s="2" customFormat="1" spans="1:5">
+      <c r="A204" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E204" s="2">
+        <v>24322</v>
+      </c>
+    </row>
+    <row r="205" s="2" customFormat="1" spans="1:5">
+      <c r="A205" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E205" s="2">
+        <v>24524</v>
+      </c>
+    </row>
+    <row r="206" s="2" customFormat="1" spans="1:5">
+      <c r="A206" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E206" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="207" s="2" customFormat="1" spans="1:5">
+      <c r="A207" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="208" s="2" customFormat="1" spans="1:5">
+      <c r="A208" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E208" s="2">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="209" s="2" customFormat="1" spans="1:5">
+      <c r="A209" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E209" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="210" s="2" customFormat="1" spans="1:5">
+      <c r="A210" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E210" s="2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="211" s="2" customFormat="1" spans="1:5">
+      <c r="A211" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E211" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="212" s="2" customFormat="1" spans="1:5">
+      <c r="A212" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E212" s="2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="213" s="2" customFormat="1" spans="1:5">
+      <c r="A213" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E213" s="2">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="214" s="2" customFormat="1" spans="1:5">
+      <c r="A214" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E214" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="215" s="2" customFormat="1" spans="1:5">
+      <c r="A215" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E215" s="2">
+        <v>22140</v>
+      </c>
+    </row>
+    <row r="216" s="2" customFormat="1" spans="1:5">
+      <c r="A216" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E216" s="2">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="217" s="2" customFormat="1" spans="1:5">
+      <c r="A217" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E217" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" s="2" customFormat="1" spans="1:5">
+      <c r="A218" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E218" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" s="2" customFormat="1" spans="1:5">
+      <c r="A219" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E219" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="220" s="2" customFormat="1" spans="1:5">
+      <c r="A220" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E220" s="2">
+        <v>24367</v>
+      </c>
+    </row>
+    <row r="221" s="2" customFormat="1" spans="1:5">
+      <c r="A221" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E221" s="2">
+        <v>24514</v>
+      </c>
+    </row>
+    <row r="222" s="2" customFormat="1" spans="1:5">
+      <c r="A222" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E222" s="2">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="223" s="2" customFormat="1" spans="1:5">
+      <c r="A223" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223" s="2">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="224" s="2" customFormat="1" spans="1:5">
+      <c r="A224" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E224" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="225" s="2" customFormat="1" spans="1:5">
+      <c r="A225" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E225" s="2">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="226" s="2" customFormat="1" spans="1:5">
+      <c r="A226" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E226" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="227" s="2" customFormat="1" spans="1:5">
+      <c r="A227" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E227" s="2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="228" s="2" customFormat="1" spans="1:5">
+      <c r="A228" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E228" s="2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="229" s="2" customFormat="1" spans="1:5">
+      <c r="A229" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E229" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="230" s="2" customFormat="1" spans="1:5">
+      <c r="A230" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E230" s="2">
+        <v>19158</v>
+      </c>
+    </row>
+    <row r="231" s="2" customFormat="1" spans="1:5">
+      <c r="A231" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E231" s="2">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="232" s="2" customFormat="1" spans="1:5">
+      <c r="A232" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E232" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" s="2" customFormat="1" spans="1:5">
+      <c r="A233" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E233" s="2">
+        <v>1951</v>
       </c>
     </row>
   </sheetData>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="159">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>教育培训-20190517-武总(江西、湖南、湖北、安徽、河南、陕西)-3天</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -515,22 +518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,9 +532,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,6 +568,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -572,9 +584,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,22 +630,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -612,11 +637,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,36 +658,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -667,25 +670,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,31 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +742,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,19 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,79 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,6 +879,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -891,17 +923,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,40 +947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,10 +969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,7 +981,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,124 +990,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1469,17 +1472,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H236" sqref="H236"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A234" sqref="$A234:$XFD242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -4593,854 +4596,1007 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:5">
+    <row r="184" s="1" customFormat="1" spans="1:5">
       <c r="A184" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" spans="1:5">
+    <row r="185" s="1" customFormat="1" spans="1:5">
       <c r="A185" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="1">
         <v>24301</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" spans="1:5">
+    <row r="186" s="1" customFormat="1" spans="1:5">
       <c r="A186" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="1">
         <v>24446</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" spans="1:5">
+    <row r="187" s="1" customFormat="1" spans="1:5">
       <c r="A187" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="1">
         <v>781</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" spans="1:5">
+    <row r="188" s="1" customFormat="1" spans="1:5">
       <c r="A188" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" spans="1:5">
+    <row r="189" s="1" customFormat="1" spans="1:5">
       <c r="A189" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="1">
         <v>3073</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" spans="1:5">
+    <row r="190" s="1" customFormat="1" spans="1:5">
       <c r="A190" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="1">
         <v>1735</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:5">
+    <row r="191" s="1" customFormat="1" spans="1:5">
       <c r="A191" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="1">
         <v>1571</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" spans="1:5">
+    <row r="192" s="1" customFormat="1" spans="1:5">
       <c r="A192" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="1">
         <v>585</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" spans="1:5">
+    <row r="193" s="1" customFormat="1" spans="1:5">
       <c r="A193" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="1">
         <v>1143</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" spans="1:5">
+    <row r="194" s="1" customFormat="1" spans="1:5">
       <c r="A194" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" spans="1:5">
+    <row r="195" s="1" customFormat="1" spans="1:5">
       <c r="A195" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="1">
         <v>1478</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="1" spans="1:5">
+    <row r="196" s="1" customFormat="1" spans="1:5">
       <c r="A196" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="1">
         <v>3036</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="1" spans="1:5">
+    <row r="197" s="1" customFormat="1" spans="1:5">
       <c r="A197" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="1">
         <v>1804</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:5">
+    <row r="198" s="1" customFormat="1" spans="1:5">
       <c r="A198" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="1" spans="1:5">
+    <row r="199" s="1" customFormat="1" spans="1:5">
       <c r="A199" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="1">
         <v>23428</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="1" spans="1:5">
+    <row r="200" s="1" customFormat="1" spans="1:5">
       <c r="A200" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="1">
         <v>2716</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="1" spans="1:5">
+    <row r="201" s="1" customFormat="1" spans="1:5">
       <c r="A201" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="1" spans="1:5">
+    <row r="202" s="1" customFormat="1" spans="1:5">
       <c r="A202" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="1" spans="1:5">
+    <row r="203" s="1" customFormat="1" spans="1:5">
       <c r="A203" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="1" spans="1:5">
+    <row r="204" s="1" customFormat="1" spans="1:5">
       <c r="A204" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="1">
         <v>24322</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="1" spans="1:5">
+    <row r="205" s="1" customFormat="1" spans="1:5">
       <c r="A205" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="1">
         <v>24524</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="1" spans="1:5">
+    <row r="206" s="1" customFormat="1" spans="1:5">
       <c r="A206" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="2" t="s">
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="1">
         <v>549</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="1" spans="1:5">
+    <row r="207" s="1" customFormat="1" spans="1:5">
       <c r="A207" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C207" s="2" t="s">
+      <c r="B207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="1">
         <v>1571</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="1" spans="1:5">
+    <row r="208" s="1" customFormat="1" spans="1:5">
       <c r="A208" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C208" s="2" t="s">
+      <c r="B208" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="1">
         <v>1564</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="1" spans="1:5">
+    <row r="209" s="1" customFormat="1" spans="1:5">
       <c r="A209" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="2" t="s">
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="1">
         <v>599</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="1" spans="1:5">
+    <row r="210" s="1" customFormat="1" spans="1:5">
       <c r="A210" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="2" t="s">
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="1">
         <v>963</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="1" spans="1:5">
+    <row r="211" s="1" customFormat="1" spans="1:5">
       <c r="A211" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C211" s="2" t="s">
+      <c r="B211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:5">
+    <row r="212" s="1" customFormat="1" spans="1:5">
       <c r="A212" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C212" s="2" t="s">
+      <c r="B212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="1">
         <v>1280</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="1" spans="1:5">
+    <row r="213" s="1" customFormat="1" spans="1:5">
       <c r="A213" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="2" t="s">
+      <c r="B213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="1">
         <v>2668</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="1" spans="1:5">
+    <row r="214" s="1" customFormat="1" spans="1:5">
       <c r="A214" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="2" t="s">
+      <c r="B214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="215" s="2" customFormat="1" spans="1:5">
+    <row r="215" s="1" customFormat="1" spans="1:5">
       <c r="A215" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="2" t="s">
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="1">
         <v>22140</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="1" spans="1:5">
+    <row r="216" s="1" customFormat="1" spans="1:5">
       <c r="A216" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="2" t="s">
+      <c r="B216" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E216" s="1">
         <v>2481</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="1" spans="1:5">
+    <row r="217" s="1" customFormat="1" spans="1:5">
       <c r="A217" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="2" t="s">
+      <c r="B217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="1" spans="1:5">
+    <row r="218" s="1" customFormat="1" spans="1:5">
       <c r="A218" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C218" s="2" t="s">
+      <c r="B218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="1" spans="1:5">
+    <row r="219" s="1" customFormat="1" spans="1:5">
       <c r="A219" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="1" spans="1:5">
+    <row r="220" s="1" customFormat="1" spans="1:5">
       <c r="A220" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E220" s="2">
+      <c r="E220" s="1">
         <v>24367</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="1" spans="1:5">
+    <row r="221" s="1" customFormat="1" spans="1:5">
       <c r="A221" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E221" s="1">
         <v>24514</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="1" spans="1:5">
+    <row r="222" s="1" customFormat="1" spans="1:5">
       <c r="A222" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="2" t="s">
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E222" s="1">
         <v>2764</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="1" spans="1:5">
+    <row r="223" s="1" customFormat="1" spans="1:5">
       <c r="A223" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C223" s="2" t="s">
+      <c r="B223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223" s="1">
         <v>1268</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="1" spans="1:5">
+    <row r="224" s="1" customFormat="1" spans="1:5">
       <c r="A224" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="2" t="s">
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224" s="1">
         <v>574</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="1" spans="1:5">
+    <row r="225" s="1" customFormat="1" spans="1:5">
       <c r="A225" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C225" s="2" t="s">
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="1">
         <v>1105</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="1" spans="1:5">
+    <row r="226" s="1" customFormat="1" spans="1:5">
       <c r="A226" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="2" t="s">
+      <c r="B226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="1" spans="1:5">
+    <row r="227" s="1" customFormat="1" spans="1:5">
       <c r="A227" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="2" t="s">
+      <c r="B227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="1">
         <v>611</v>
       </c>
     </row>
-    <row r="228" s="2" customFormat="1" spans="1:5">
+    <row r="228" s="1" customFormat="1" spans="1:5">
       <c r="A228" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C228" s="2" t="s">
+      <c r="B228" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228" s="1">
         <v>1900</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="1" spans="1:5">
+    <row r="229" s="1" customFormat="1" spans="1:5">
       <c r="A229" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C229" s="2" t="s">
+      <c r="B229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="1" spans="1:5">
+    <row r="230" s="1" customFormat="1" spans="1:5">
       <c r="A230" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" s="2" t="s">
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="1">
         <v>19158</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="1" spans="1:5">
+    <row r="231" s="1" customFormat="1" spans="1:5">
       <c r="A231" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" s="2" t="s">
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="1">
         <v>1885</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="1" spans="1:5">
+    <row r="232" s="1" customFormat="1" spans="1:5">
       <c r="A232" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" s="2" t="s">
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="1" spans="1:5">
+    <row r="233" s="1" customFormat="1" spans="1:5">
       <c r="A233" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="2" t="s">
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="1">
         <v>1951</v>
+      </c>
+    </row>
+    <row r="234" s="2" customFormat="1" spans="1:5">
+      <c r="A234" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E234" s="2">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="235" s="2" customFormat="1" spans="1:5">
+      <c r="A235" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E235" s="2">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="236" s="2" customFormat="1" spans="1:5">
+      <c r="A236" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E236" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="237" s="2" customFormat="1" spans="1:5">
+      <c r="A237" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E237" s="2">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="238" s="2" customFormat="1" spans="1:5">
+      <c r="A238" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E238" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="239" s="2" customFormat="1" spans="1:5">
+      <c r="A239" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E239" s="2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="240" s="2" customFormat="1" spans="1:5">
+      <c r="A240" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E240" s="2">
+        <v>21593</v>
+      </c>
+    </row>
+    <row r="241" s="2" customFormat="1" spans="1:5">
+      <c r="A241" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E241" s="2">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="242" s="2" customFormat="1" spans="1:5">
+      <c r="A242" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E242" s="2">
+        <v>2108</v>
       </c>
     </row>
   </sheetData>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="166">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -496,6 +496,27 @@
   </si>
   <si>
     <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2019-05-21</t>
+  </si>
+  <si>
+    <t>dt1261</t>
+  </si>
+  <si>
+    <t>招聘-20190328-上海老邦(全国)</t>
+  </si>
+  <si>
+    <t>dt1696</t>
+  </si>
+  <si>
+    <t>无卡支付-20190517-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1697</t>
+  </si>
+  <si>
+    <t>信用卡-20190517-徐总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -503,9 +524,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -517,10 +538,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,7 +554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +562,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +615,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,9 +668,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,83 +679,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -670,37 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,19 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +727,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,25 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,13 +799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,37 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +847,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,21 +882,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -893,32 +899,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,6 +927,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -969,10 +990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,133 +1002,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,17 +1493,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A234" sqref="$A234:$XFD242"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A243" sqref="$A243:$XFD253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="71.5" customWidth="1"/>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5446,158 +5467,348 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="234" s="2" customFormat="1" spans="1:5">
+    <row r="234" s="1" customFormat="1" spans="1:5">
       <c r="A234" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="2" t="s">
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234" s="1">
         <v>3247</v>
       </c>
     </row>
-    <row r="235" s="2" customFormat="1" spans="1:5">
+    <row r="235" s="1" customFormat="1" spans="1:5">
       <c r="A235" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="2" t="s">
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="1">
         <v>1641</v>
       </c>
     </row>
-    <row r="236" s="2" customFormat="1" spans="1:5">
+    <row r="236" s="1" customFormat="1" spans="1:5">
       <c r="A236" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" s="2" t="s">
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="1">
         <v>655</v>
       </c>
     </row>
-    <row r="237" s="2" customFormat="1" spans="1:5">
+    <row r="237" s="1" customFormat="1" spans="1:5">
       <c r="A237" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" s="2" t="s">
+      <c r="B237" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="1">
         <v>1834</v>
       </c>
     </row>
-    <row r="238" s="2" customFormat="1" spans="1:5">
+    <row r="238" s="1" customFormat="1" spans="1:5">
       <c r="A238" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" s="2" t="s">
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E238" s="2">
+      <c r="E238" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="239" s="2" customFormat="1" spans="1:5">
+    <row r="239" s="1" customFormat="1" spans="1:5">
       <c r="A239" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="2" t="s">
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239" s="1">
         <v>1136</v>
       </c>
     </row>
-    <row r="240" s="2" customFormat="1" spans="1:5">
+    <row r="240" s="1" customFormat="1" spans="1:5">
       <c r="A240" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" s="2" t="s">
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240" s="1">
         <v>21593</v>
       </c>
     </row>
-    <row r="241" s="2" customFormat="1" spans="1:5">
+    <row r="241" s="1" customFormat="1" spans="1:5">
       <c r="A241" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" s="2" t="s">
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="1">
         <v>2415</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="1" spans="1:5">
+    <row r="242" s="1" customFormat="1" spans="1:5">
       <c r="A242" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" s="2" t="s">
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242" s="1">
         <v>2108</v>
       </c>
+    </row>
+    <row r="243" s="2" customFormat="1" spans="1:5">
+      <c r="A243" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E243" s="2">
+        <v>91294</v>
+      </c>
+    </row>
+    <row r="244" s="2" customFormat="1" spans="1:5">
+      <c r="A244" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E244" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="245" s="2" customFormat="1" spans="1:5">
+      <c r="A245" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E245" s="2">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="246" s="2" customFormat="1" spans="1:5">
+      <c r="A246" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E246" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="247" s="2" customFormat="1" spans="1:5">
+      <c r="A247" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E247" s="2">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="248" s="2" customFormat="1" spans="1:5">
+      <c r="A248" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E248" s="2">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="249" s="2" customFormat="1" spans="1:5">
+      <c r="A249" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E249" s="2">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="250" s="2" customFormat="1" spans="1:5">
+      <c r="A250" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E250" s="2">
+        <v>27275</v>
+      </c>
+    </row>
+    <row r="251" s="2" customFormat="1" spans="1:5">
+      <c r="A251" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E251" s="2">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="252" s="2" customFormat="1" spans="1:5">
+      <c r="A252" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E252" s="2">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="253" s="2" customFormat="1" spans="1:5">
+      <c r="A253" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E253" s="2">
+        <v>99418</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="173">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -517,6 +517,27 @@
   </si>
   <si>
     <t>信用卡-20190517-徐总(全国)-1天</t>
+  </si>
+  <si>
+    <t>2019-05-22</t>
+  </si>
+  <si>
+    <t>dt1768</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190521-曹总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1769</t>
+  </si>
+  <si>
+    <t>房地产-20190521-曹总(重庆,四川,贵州,云南,陕西,黑龙江,吉林,广东,广西)-1天</t>
+  </si>
+  <si>
+    <t>dt1770</t>
+  </si>
+  <si>
+    <t>现金贷-20190521-曹总(浙江,上海)-1天</t>
   </si>
 </sst>
 </file>
@@ -546,15 +567,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,9 +621,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,23 +651,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,15 +672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,39 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,7 +712,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +790,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,31 +832,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,49 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,43 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,11 +915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,16 +940,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,17 +969,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,17 +1514,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A243" sqref="$A243:$XFD253"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G251" sqref="G251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="4" max="4" width="71.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -5620,195 +5641,430 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="243" s="2" customFormat="1" spans="1:5">
+    <row r="243" s="1" customFormat="1" spans="1:5">
       <c r="A243" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243" s="1">
         <v>91294</v>
       </c>
     </row>
-    <row r="244" s="2" customFormat="1" spans="1:5">
+    <row r="244" s="1" customFormat="1" spans="1:5">
       <c r="A244" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244" s="1">
         <v>739</v>
       </c>
     </row>
-    <row r="245" s="2" customFormat="1" spans="1:5">
+    <row r="245" s="1" customFormat="1" spans="1:5">
       <c r="A245" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245" s="1">
         <v>2922</v>
       </c>
     </row>
-    <row r="246" s="2" customFormat="1" spans="1:5">
+    <row r="246" s="1" customFormat="1" spans="1:5">
       <c r="A246" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E246" s="1">
         <v>594</v>
       </c>
     </row>
-    <row r="247" s="2" customFormat="1" spans="1:5">
+    <row r="247" s="1" customFormat="1" spans="1:5">
       <c r="A247" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247" s="1">
         <v>1308</v>
       </c>
     </row>
-    <row r="248" s="2" customFormat="1" spans="1:5">
+    <row r="248" s="1" customFormat="1" spans="1:5">
       <c r="A248" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248" s="1">
         <v>1181</v>
       </c>
     </row>
-    <row r="249" s="2" customFormat="1" spans="1:5">
+    <row r="249" s="1" customFormat="1" spans="1:5">
       <c r="A249" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E249" s="2">
+      <c r="E249" s="1">
         <v>2096</v>
       </c>
     </row>
-    <row r="250" s="2" customFormat="1" spans="1:5">
+    <row r="250" s="1" customFormat="1" spans="1:5">
       <c r="A250" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250" s="1">
         <v>27275</v>
       </c>
     </row>
-    <row r="251" s="2" customFormat="1" spans="1:5">
+    <row r="251" s="1" customFormat="1" spans="1:5">
       <c r="A251" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251" s="1">
         <v>6892</v>
       </c>
     </row>
-    <row r="252" s="2" customFormat="1" spans="1:5">
+    <row r="252" s="1" customFormat="1" spans="1:5">
       <c r="A252" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E252" s="2">
+      <c r="E252" s="1">
         <v>1284</v>
       </c>
     </row>
-    <row r="253" s="2" customFormat="1" spans="1:5">
+    <row r="253" s="1" customFormat="1" spans="1:5">
       <c r="A253" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253" s="1">
         <v>99418</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="3"/>
+    <row r="254" s="2" customFormat="1" spans="1:5">
+      <c r="A254" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E254" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="255" s="2" customFormat="1" spans="1:5">
+      <c r="A255" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E255" s="2">
+        <v>99251</v>
+      </c>
+    </row>
+    <row r="256" s="2" customFormat="1" spans="1:5">
+      <c r="A256" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E256" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="257" s="2" customFormat="1" spans="1:5">
+      <c r="A257" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E257" s="2">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="258" s="2" customFormat="1" spans="1:5">
+      <c r="A258" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E258" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="259" s="2" customFormat="1" spans="1:5">
+      <c r="A259" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E259" s="2">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="260" s="2" customFormat="1" spans="1:5">
+      <c r="A260" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E260" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="261" s="2" customFormat="1" spans="1:5">
+      <c r="A261" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E261" s="2">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="262" s="2" customFormat="1" spans="1:5">
+      <c r="A262" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E262" s="2">
+        <v>6526</v>
+      </c>
+    </row>
+    <row r="263" s="2" customFormat="1" spans="1:5">
+      <c r="A263" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E263" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="264" s="2" customFormat="1" spans="1:5">
+      <c r="A264" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E264" s="2">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="265" s="2" customFormat="1" spans="1:5">
+      <c r="A265" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E265" s="2">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="266" s="2" customFormat="1" spans="1:5">
+      <c r="A266" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E266" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" spans="1:5">
+      <c r="A267" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E267" s="2">
+        <v>1069</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$284</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="241">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -691,6 +691,57 @@
   </si>
   <si>
     <t>招商加盟-20190522-文总(广东,广西省)-3天</t>
+  </si>
+  <si>
+    <t>2019-05-24</t>
+  </si>
+  <si>
+    <t>dt1806</t>
+  </si>
+  <si>
+    <t>保险规划师Q-20190523-广东</t>
+  </si>
+  <si>
+    <t>dt1802</t>
+  </si>
+  <si>
+    <t>留学-20190523-李总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1803</t>
+  </si>
+  <si>
+    <t>消防考证-20190523-深总(广东)-4天</t>
+  </si>
+  <si>
+    <t>dt1804</t>
+  </si>
+  <si>
+    <t>信用卡代还-20190523-王总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1805</t>
+  </si>
+  <si>
+    <t>装修-20190523-邢总(四川)-2天</t>
+  </si>
+  <si>
+    <t>2019-05-25</t>
+  </si>
+  <si>
+    <t>dt1816</t>
+  </si>
+  <si>
+    <t>代理记账-20190524-王总(上海,天津,山东,江苏)-3天</t>
+  </si>
+  <si>
+    <t>dt1817</t>
+  </si>
+  <si>
+    <t>股票-20190524-孙总(北京,上海,广东)-1天</t>
+  </si>
+  <si>
+    <t>2019-05-26</t>
   </si>
 </sst>
 </file>
@@ -698,10 +749,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -712,38 +763,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +780,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -766,14 +796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,16 +810,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,8 +854,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -827,30 +894,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,7 +916,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,13 +970,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,37 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,103 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,11 +1110,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1140,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1094,21 +1160,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,11 +1181,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,9 +1199,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,10 +1215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,133 +1227,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1666,18 +1717,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:F284"/>
+  <sheetPr/>
+  <dimension ref="A2:F330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A285" sqref="$A285:$XFD330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -7020,328 +7071,1110 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="1" spans="1:6">
+    <row r="269" s="1" customFormat="1" spans="1:6">
       <c r="A269" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="1">
         <v>266</v>
       </c>
-      <c r="F269" s="2" t="s">
+      <c r="F269" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="270" s="2" customFormat="1" spans="1:6">
+    <row r="270" s="1" customFormat="1" spans="1:6">
       <c r="A270" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270" s="1">
         <v>579</v>
       </c>
-      <c r="F270" s="2" t="s">
+      <c r="F270" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="271" s="2" customFormat="1" spans="1:6">
+    <row r="271" s="1" customFormat="1" spans="1:6">
       <c r="A271" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271" s="1">
         <v>1633</v>
       </c>
-      <c r="F271" s="2" t="s">
+      <c r="F271" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="1" spans="1:6">
+    <row r="272" s="1" customFormat="1" spans="1:6">
       <c r="A272" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272" s="1">
         <v>736</v>
       </c>
-      <c r="F272" s="2" t="s">
+      <c r="F272" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="273" s="2" customFormat="1" spans="1:6">
+    <row r="273" s="1" customFormat="1" spans="1:6">
       <c r="A273" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273" s="1">
         <v>259</v>
       </c>
-      <c r="F273" s="2" t="s">
+      <c r="F273" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="274" s="2" customFormat="1" spans="1:6">
+    <row r="274" s="1" customFormat="1" spans="1:6">
       <c r="A274" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E274" s="2">
+      <c r="E274" s="1">
         <v>817</v>
       </c>
-      <c r="F274" s="2" t="s">
+      <c r="F274" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="1" spans="1:6">
+    <row r="275" s="1" customFormat="1" spans="1:6">
       <c r="A275" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D275" t="s">
         <v>174</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275" s="1">
         <v>25215</v>
       </c>
-      <c r="F275" s="2" t="s">
+      <c r="F275" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="276" s="2" customFormat="1" spans="1:6">
+    <row r="276" s="1" customFormat="1" spans="1:6">
       <c r="A276" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276" s="1">
         <v>6330</v>
       </c>
-      <c r="F276" s="2" t="s">
+      <c r="F276" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="277" s="2" customFormat="1" spans="1:6">
+    <row r="277" s="1" customFormat="1" spans="1:6">
       <c r="A277" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E277" s="2">
+      <c r="E277" s="1">
         <v>39</v>
       </c>
-      <c r="F277" s="2" t="s">
+      <c r="F277" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="278" s="2" customFormat="1" spans="1:6">
+    <row r="278" s="1" customFormat="1" spans="1:6">
       <c r="A278" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E278" s="2">
+      <c r="E278" s="1">
         <v>2426</v>
       </c>
-      <c r="F278" s="2" t="s">
+      <c r="F278" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="279" s="2" customFormat="1" spans="1:6">
+    <row r="279" s="1" customFormat="1" spans="1:6">
       <c r="A279" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279" s="1">
         <v>3480</v>
       </c>
-      <c r="F279" s="2" t="s">
+      <c r="F279" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="280" s="2" customFormat="1" spans="1:6">
+    <row r="280" s="1" customFormat="1" spans="1:6">
       <c r="A280" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280" s="1">
         <v>70</v>
       </c>
-      <c r="F280" s="2" t="s">
+      <c r="F280" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="281" s="2" customFormat="1" spans="1:6">
+    <row r="281" s="1" customFormat="1" spans="1:6">
       <c r="A281" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281" s="1">
         <v>905</v>
       </c>
-      <c r="F281" s="2" t="s">
+      <c r="F281" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="282" s="2" customFormat="1" spans="1:6">
+    <row r="282" s="1" customFormat="1" spans="1:6">
       <c r="A282" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282" s="1">
         <v>3199</v>
       </c>
-      <c r="F282" s="2" t="s">
+      <c r="F282" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="283" s="2" customFormat="1" spans="1:6">
+    <row r="283" s="1" customFormat="1" spans="1:6">
       <c r="A283" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="1">
         <v>1011</v>
       </c>
-      <c r="F283" s="2" t="s">
+      <c r="F283" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="284" s="2" customFormat="1" spans="1:6">
+    <row r="284" s="1" customFormat="1" spans="1:6">
       <c r="A284" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284" s="1">
         <v>210</v>
       </c>
-      <c r="F284" s="2" t="s">
+      <c r="F284" s="1" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="285" s="2" customFormat="1" spans="1:5">
+      <c r="A285" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E285" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="286" s="2" customFormat="1" spans="1:5">
+      <c r="A286" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E286" s="2">
+        <v>98338</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" spans="1:5">
+      <c r="A287" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E287" s="2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="288" s="2" customFormat="1" spans="1:5">
+      <c r="A288" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E288" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="289" s="2" customFormat="1" spans="1:5">
+      <c r="A289" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E289" s="2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="290" s="2" customFormat="1" spans="1:5">
+      <c r="A290" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E290" s="2">
+        <v>22246</v>
+      </c>
+    </row>
+    <row r="291" s="2" customFormat="1" spans="1:5">
+      <c r="A291" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E291" s="2">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="292" s="2" customFormat="1" spans="1:5">
+      <c r="A292" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E292" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" s="2" customFormat="1" spans="1:5">
+      <c r="A293" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E293" s="2">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="294" s="2" customFormat="1" spans="1:5">
+      <c r="A294" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E294" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" spans="1:5">
+      <c r="A295" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E295" s="2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:5">
+      <c r="A296" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E296" s="2">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="297" s="2" customFormat="1" spans="1:5">
+      <c r="A297" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E297" s="2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="298" s="2" customFormat="1" spans="1:5">
+      <c r="A298" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E298" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" spans="1:5">
+      <c r="A299" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E299" s="2">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="300" s="2" customFormat="1" spans="1:5">
+      <c r="A300" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E300" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" spans="1:5">
+      <c r="A301" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E301" s="2">
+        <v>10524</v>
+      </c>
+    </row>
+    <row r="302" s="2" customFormat="1" spans="1:5">
+      <c r="A302" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E302" s="2">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" spans="1:5">
+      <c r="A303" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="304" s="2" customFormat="1" spans="1:5">
+      <c r="A304" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E304" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" spans="1:5">
+      <c r="A305" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E305" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="306" s="2" customFormat="1" spans="1:5">
+      <c r="A306" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E306" s="2">
+        <v>23353</v>
+      </c>
+    </row>
+    <row r="307" s="2" customFormat="1" spans="1:5">
+      <c r="A307" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E307" s="2">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="308" s="2" customFormat="1" spans="1:5">
+      <c r="A308" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E308" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" s="2" customFormat="1" spans="1:5">
+      <c r="A309" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E309" s="2">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="310" s="2" customFormat="1" spans="1:5">
+      <c r="A310" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E310" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="311" s="2" customFormat="1" spans="1:5">
+      <c r="A311" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E311" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="312" s="2" customFormat="1" spans="1:5">
+      <c r="A312" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E312" s="2">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" spans="1:5">
+      <c r="A313" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E313" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="314" s="2" customFormat="1" spans="1:5">
+      <c r="A314" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E314" s="2">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="1" spans="1:5">
+      <c r="A315" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E315" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="316" s="2" customFormat="1" spans="1:5">
+      <c r="A316" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E316" s="2">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" spans="1:5">
+      <c r="A317" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E317" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="318" s="2" customFormat="1" spans="1:5">
+      <c r="A318" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E318" s="2">
+        <v>99114</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" spans="1:5">
+      <c r="A319" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E319" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="320" s="2" customFormat="1" spans="1:5">
+      <c r="A320" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E320" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:5">
+      <c r="A321" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E321" s="2">
+        <v>17451</v>
+      </c>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:5">
+      <c r="A322" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E322" s="2">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:5">
+      <c r="A323" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E323" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:5">
+      <c r="A324" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E324" s="2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="325" s="2" customFormat="1" spans="1:5">
+      <c r="A325" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E325" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="326" s="2" customFormat="1" spans="1:5">
+      <c r="A326" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E326" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="327" s="2" customFormat="1" spans="1:5">
+      <c r="A327" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E327" s="2">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="328" s="2" customFormat="1" spans="1:5">
+      <c r="A328" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E328" s="2">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="329" s="2" customFormat="1" spans="1:5">
+      <c r="A329" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E329" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="1" spans="1:5">
+      <c r="A330" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E330" s="2">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F268">
+  <autoFilter ref="F1:F284">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7352,7 +8185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7369,7 +8202,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/数据汇总/数据汇总-201905.xlsx
+++ b/数据汇总/数据汇总-201905.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$340</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="243">
   <si>
     <t>2019-05-01</t>
   </si>
@@ -153,7 +153,7 @@
     <t>2019-05-06</t>
   </si>
   <si>
-    <t>广州（邱哥）</t>
+    <t>广州（邱总）</t>
   </si>
   <si>
     <t>dt1555</t>
@@ -702,6 +702,9 @@
     <t>保险规划师Q-20190523-广东</t>
   </si>
   <si>
+    <t>读取湖南数据</t>
+  </si>
+  <si>
     <t>dt1802</t>
   </si>
   <si>
@@ -742,6 +745,9 @@
   </si>
   <si>
     <t>2019-05-26</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
   </si>
 </sst>
 </file>
@@ -750,9 +756,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -763,9 +769,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,81 +874,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -878,32 +890,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -916,13 +922,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,31 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,49 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,13 +1042,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,43 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,32 +1116,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,11 +1166,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,11 +1192,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,10 +1221,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,141 +1233,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1718,21 +1727,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F330"/>
+  <dimension ref="A2:G340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A285" sqref="$A285:$XFD330"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="62" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1752,7 +1762,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1772,7 +1782,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1792,7 +1802,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1812,7 +1822,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1832,7 +1842,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1852,7 +1862,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1872,7 +1882,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1892,7 +1902,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1912,7 +1922,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1932,7 +1942,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1952,7 +1962,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1972,7 +1982,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1992,7 +2002,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2012,7 +2022,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2032,7 +2042,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2052,7 +2062,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2072,7 +2082,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2092,7 +2102,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2112,7 +2122,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2132,7 +2142,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2152,7 +2162,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2172,7 +2182,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2192,7 +2202,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2212,7 +2222,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2232,7 +2242,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2252,7 +2262,7 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2272,7 +2282,7 @@
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2292,7 +2302,7 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2312,7 +2322,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2332,7 +2342,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2352,7 +2362,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2372,7 +2382,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2392,7 +2402,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2412,7 +2422,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2432,7 +2442,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2452,7 +2462,7 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:6">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2472,7 +2482,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2492,7 +2502,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2512,7 +2522,7 @@
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2532,7 +2542,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2552,7 +2562,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2572,7 +2582,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2592,7 +2602,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2612,7 +2622,7 @@
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2632,7 +2642,7 @@
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2652,7 +2662,7 @@
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2672,7 +2682,7 @@
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2692,7 +2702,7 @@
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2712,7 +2722,7 @@
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2732,7 +2742,7 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:6">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2752,7 +2762,7 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2772,7 +2782,7 @@
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2792,7 +2802,7 @@
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2812,7 +2822,7 @@
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2832,7 +2842,7 @@
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2852,7 +2862,7 @@
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2872,7 +2882,7 @@
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2892,7 +2902,7 @@
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:6">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2912,7 +2922,7 @@
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2932,7 +2942,7 @@
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:6">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2952,7 +2962,7 @@
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:6">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2972,7 +2982,7 @@
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2992,7 +3002,7 @@
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3012,11 +3022,11 @@
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:6">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>91</v>
@@ -3032,7 +3042,7 @@
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3052,7 +3062,7 @@
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:6">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3072,7 +3082,7 @@
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3092,7 +3102,7 @@
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:6">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3112,7 +3122,7 @@
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:6">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3132,7 +3142,7 @@
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:6">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3152,7 +3162,7 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:6">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3172,7 +3182,7 @@
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:6">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3192,7 +3202,7 @@
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:6">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3212,7 +3222,7 @@
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:6">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3232,7 +3242,7 @@
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:6">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3252,7 +3262,7 @@
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:6">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3272,7 +3282,7 @@
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:6">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3292,7 +3302,7 @@
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:6">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3312,7 +3322,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3332,7 +3342,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3352,7 +3362,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3372,7 +3382,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3392,7 +3402,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3412,7 +3422,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3432,7 +3442,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3452,7 +3462,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3472,7 +3482,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3492,7 +3502,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3512,7 +3522,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -3532,7 +3542,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3552,7 +3562,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -3572,7 +3582,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -3592,7 +3602,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -3612,7 +3622,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -3632,7 +3642,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3652,7 +3662,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -3672,7 +3682,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -3692,7 +3702,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -3712,7 +3722,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -3732,7 +3742,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3752,7 +3762,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3772,7 +3782,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3792,7 +3802,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3812,7 +3822,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -3832,7 +3842,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3852,7 +3862,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3872,7 +3882,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -3892,7 +3902,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3912,7 +3922,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3932,7 +3942,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3952,7 +3962,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3972,7 +3982,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3992,7 +4002,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -4012,7 +4022,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -4032,7 +4042,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -4052,7 +4062,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -4072,7 +4082,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -4092,7 +4102,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -4112,7 +4122,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -4132,7 +4142,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -4152,7 +4162,7 @@
       </c>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:6">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -4172,7 +4182,7 @@
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:6">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -4192,7 +4202,7 @@
       </c>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:6">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -4212,7 +4222,7 @@
       </c>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:6">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -4232,7 +4242,7 @@
       </c>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:6">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -4252,7 +4262,7 @@
       </c>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:6">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -4272,7 +4282,7 @@
       </c>
     </row>
     <row r="129" s="1" customFormat="1" spans="1:6">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -4292,7 +4302,7 @@
       </c>
     </row>
     <row r="130" s="1" customFormat="1" spans="1:6">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -4312,7 +4322,7 @@
       </c>
     </row>
     <row r="131" s="1" customFormat="1" spans="1:6">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -4332,7 +4342,7 @@
       </c>
     </row>
     <row r="132" s="1" customFormat="1" spans="1:6">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -4352,7 +4362,7 @@
       </c>
     </row>
     <row r="133" s="1" customFormat="1" spans="1:6">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -4372,7 +4382,7 @@
       </c>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:6">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -4392,7 +4402,7 @@
       </c>
     </row>
     <row r="135" s="1" customFormat="1" spans="1:6">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -4412,7 +4422,7 @@
       </c>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:6">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -4432,7 +4442,7 @@
       </c>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:6">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -4452,7 +4462,7 @@
       </c>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:6">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4472,7 +4482,7 @@
       </c>
     </row>
     <row r="139" s="1" customFormat="1" spans="1:6">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -4492,7 +4502,7 @@
       </c>
     </row>
     <row r="140" s="1" customFormat="1" spans="1:6">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -4512,7 +4522,7 @@
       </c>
     </row>
     <row r="141" s="1" customFormat="1" spans="1:6">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -4532,7 +4542,7 @@
       </c>
     </row>
     <row r="142" s="1" customFormat="1" spans="1:6">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -4552,7 +4562,7 @@
       </c>
     </row>
     <row r="143" s="1" customFormat="1" spans="1:6">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -4572,7 +4582,7 @@
       </c>
     </row>
     <row r="144" s="1" customFormat="1" spans="1:6">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -4592,7 +4602,7 @@
       </c>
     </row>
     <row r="145" s="1" customFormat="1" spans="1:6">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -4612,7 +4622,7 @@
       </c>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:6">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -4632,7 +4642,7 @@
       </c>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:6">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -4652,7 +4662,7 @@
       </c>
     </row>
     <row r="148" s="1" customFormat="1" spans="1:6">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -4672,7 +4682,7 @@
       </c>
     </row>
     <row r="149" s="1" customFormat="1" spans="1:6">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -4692,7 +4702,7 @@
       </c>
     </row>
     <row r="150" s="1" customFormat="1" spans="1:6">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -4712,7 +4722,7 @@
       </c>
     </row>
     <row r="151" s="1" customFormat="1" spans="1:6">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -4732,7 +4742,7 @@
       </c>
     </row>
     <row r="152" s="1" customFormat="1" spans="1:6">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -4752,7 +4762,7 @@
       </c>
     </row>
     <row r="153" s="1" customFormat="1" spans="1:6">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -4772,7 +4782,7 @@
       </c>
     </row>
     <row r="154" s="1" customFormat="1" spans="1:6">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -4792,7 +4802,7 @@
       </c>
     </row>
     <row r="155" s="1" customFormat="1" spans="1:6">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -4812,7 +4822,7 @@
       </c>
     </row>
     <row r="156" s="1" customFormat="1" spans="1:6">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -4832,7 +4842,7 @@
       </c>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:6">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -4852,7 +4862,7 @@
       </c>
     </row>
     <row r="158" s="1" customFormat="1" spans="1:6">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -4872,7 +4882,7 @@
       </c>
     </row>
     <row r="159" s="1" customFormat="1" spans="1:6">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -4892,7 +4902,7 @@
       </c>
     </row>
     <row r="160" s="1" customFormat="1" spans="1:6">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -4912,7 +4922,7 @@
       </c>
     </row>
     <row r="161" s="1" customFormat="1" spans="1:6">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -4932,7 +4942,7 @@
       </c>
     </row>
     <row r="162" s="1" customFormat="1" spans="1:6">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -4952,7 +4962,7 @@
       </c>
     </row>
     <row r="163" s="1" customFormat="1" spans="1:6">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -4972,7 +4982,7 @@
       </c>
     </row>
     <row r="164" s="1" customFormat="1" spans="1:6">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -4992,7 +5002,7 @@
       </c>
     </row>
     <row r="165" s="1" customFormat="1" spans="1:6">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -5012,7 +5022,7 @@
       </c>
     </row>
     <row r="166" s="1" customFormat="1" spans="1:6">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -5032,7 +5042,7 @@
       </c>
     </row>
     <row r="167" s="1" customFormat="1" spans="1:6">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -5052,7 +5062,7 @@
       </c>
     </row>
     <row r="168" s="1" customFormat="1" spans="1:6">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -5072,7 +5082,7 @@
       </c>
     </row>
     <row r="169" s="1" customFormat="1" spans="1:6">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -5092,7 +5102,7 @@
       </c>
     </row>
     <row r="170" s="1" customFormat="1" spans="1:6">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -5112,7 +5122,7 @@
       </c>
     </row>
     <row r="171" s="1" customFormat="1" spans="1:6">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -5132,7 +5142,7 @@
       </c>
     </row>
     <row r="172" s="1" customFormat="1" spans="1:6">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -5152,7 +5162,7 @@
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="1:6">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -5172,7 +5182,7 @@
       </c>
     </row>
     <row r="174" s="1" customFormat="1" spans="1:6">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -5192,7 +5202,7 @@
       </c>
     </row>
     <row r="175" s="1" customFormat="1" spans="1:6">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -5212,7 +5222,7 @@
       </c>
     </row>
     <row r="176" s="1" customFormat="1" spans="1:6">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -5232,7 +5242,7 @@
       </c>
     </row>
     <row r="177" s="1" customFormat="1" spans="1:6">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -5252,7 +5262,7 @@
       </c>
     </row>
     <row r="178" s="1" customFormat="1" spans="1:6">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -5272,7 +5282,7 @@
       </c>
     </row>
     <row r="179" s="1" customFormat="1" spans="1:6">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -5292,7 +5302,7 @@
       </c>
     </row>
     <row r="180" s="1" customFormat="1" spans="1:6">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -5312,7 +5322,7 @@
       </c>
     </row>
     <row r="181" s="1" customFormat="1" spans="1:6">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -5332,7 +5342,7 @@
       </c>
     </row>
     <row r="182" s="1" customFormat="1" spans="1:6">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -5352,7 +5362,7 @@
       </c>
     </row>
     <row r="183" s="1" customFormat="1" spans="1:6">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -5372,7 +5382,7 @@
       </c>
     </row>
     <row r="184" s="1" customFormat="1" spans="1:6">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -5392,7 +5402,7 @@
       </c>
     </row>
     <row r="185" s="1" customFormat="1" spans="1:6">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -5412,7 +5422,7 @@
       </c>
     </row>
     <row r="186" s="1" customFormat="1" spans="1:6">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -5432,7 +5442,7 @@
       </c>
     </row>
     <row r="187" s="1" customFormat="1" spans="1:6">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -5452,7 +5462,7 @@
       </c>
     </row>
     <row r="188" s="1" customFormat="1" spans="1:6">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -5472,7 +5482,7 @@
       </c>
     </row>
     <row r="189" s="1" customFormat="1" spans="1:6">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -5492,7 +5502,7 @@
       </c>
     </row>
     <row r="190" s="1" customFormat="1" spans="1:6">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -5512,7 +5522,7 @@
       </c>
     </row>
     <row r="191" s="1" customFormat="1" spans="1:6">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -5532,7 +5542,7 @@
       </c>
     </row>
     <row r="192" s="1" customFormat="1" spans="1:6">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -5552,7 +5562,7 @@
       </c>
     </row>
     <row r="193" s="1" customFormat="1" spans="1:6">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -5572,7 +5582,7 @@
       </c>
     </row>
     <row r="194" s="1" customFormat="1" spans="1:6">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -5592,7 +5602,7 @@
       </c>
     </row>
     <row r="195" s="1" customFormat="1" spans="1:6">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -5612,7 +5622,7 @@
       </c>
     </row>
     <row r="196" s="1" customFormat="1" spans="1:6">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -5632,7 +5642,7 @@
       </c>
     </row>
     <row r="197" s="1" customFormat="1" spans="1:6">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -5652,7 +5662,7 @@
       </c>
     </row>
     <row r="198" s="1" customFormat="1" spans="1:6">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -5672,7 +5682,7 @@
       </c>
     </row>
     <row r="199" s="1" customFormat="1" spans="1:6">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -5692,7 +5702,7 @@
       </c>
     </row>
     <row r="200" s="1" customFormat="1" spans="1:6">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -5712,7 +5722,7 @@
       </c>
     </row>
     <row r="201" s="1" customFormat="1" spans="1:6">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -5732,7 +5742,7 @@
       </c>
     </row>
     <row r="202" s="1" customFormat="1" spans="1:6">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -5752,7 +5762,7 @@
       </c>
     </row>
     <row r="203" s="1" customFormat="1" spans="1:6">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -5772,7 +5782,7 @@
       </c>
     </row>
     <row r="204" s="1" customFormat="1" spans="1:6">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -5792,7 +5802,7 @@
       </c>
     </row>
     <row r="205" s="1" customFormat="1" spans="1:6">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -5812,7 +5822,7 @@
       </c>
     </row>
     <row r="206" s="1" customFormat="1" spans="1:6">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -5832,7 +5842,7 @@
       </c>
     </row>
     <row r="207" s="1" customFormat="1" spans="1:6">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -5852,7 +5862,7 @@
       </c>
     </row>
     <row r="208" s="1" customFormat="1" spans="1:6">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -5872,7 +5882,7 @@
       </c>
     </row>
     <row r="209" s="1" customFormat="1" spans="1:6">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -5892,7 +5902,7 @@
       </c>
     </row>
     <row r="210" s="1" customFormat="1" spans="1:6">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -5912,7 +5922,7 @@
       </c>
     </row>
     <row r="211" s="1" customFormat="1" spans="1:6">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -5932,7 +5942,7 @@
       </c>
     </row>
     <row r="212" s="1" customFormat="1" spans="1:6">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -5952,7 +5962,7 @@
       </c>
     </row>
     <row r="213" s="1" customFormat="1" spans="1:6">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -5972,7 +5982,7 @@
       </c>
     </row>
     <row r="214" s="1" customFormat="1" spans="1:6">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -5992,7 +6002,7 @@
       </c>
     </row>
     <row r="215" s="1" customFormat="1" spans="1:6">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -6012,7 +6022,7 @@
       </c>
     </row>
     <row r="216" s="1" customFormat="1" spans="1:6">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -6032,7 +6042,7 @@
       </c>
     </row>
     <row r="217" s="1" customFormat="1" spans="1:6">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -6052,7 +6062,7 @@
       </c>
     </row>
     <row r="218" s="1" customFormat="1" spans="1:6">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -6072,7 +6082,7 @@
       </c>
     </row>
     <row r="219" s="1" customFormat="1" spans="1:6">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -6092,7 +6102,7 @@
       </c>
     </row>
     <row r="220" s="1" customFormat="1" spans="1:6">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -6112,7 +6122,7 @@
       </c>
     </row>
     <row r="221" s="1" customFormat="1" spans="1:6">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -6132,7 +6142,7 @@
       </c>
     </row>
     <row r="222" s="1" customFormat="1" spans="1:6">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -6152,7 +6162,7 @@
       </c>
     </row>
     <row r="223" s="1" customFormat="1" spans="1:6">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -6172,7 +6182,7 @@
       </c>
     </row>
     <row r="224" s="1" customFormat="1" spans="1:6">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -6192,7 +6202,7 @@
       </c>
     </row>
     <row r="225" s="1" customFormat="1" spans="1:6">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -6212,7 +6222,7 @@
       </c>
     </row>
     <row r="226" s="1" customFormat="1" spans="1:6">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -6232,7 +6242,7 @@
       </c>
     </row>
     <row r="227" s="1" customFormat="1" spans="1:6">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -6252,7 +6262,7 @@
       </c>
     </row>
     <row r="228" s="1" customFormat="1" spans="1:6">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -6272,7 +6282,7 @@
       </c>
     </row>
     <row r="229" s="1" customFormat="1" spans="1:6">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -6292,7 +6302,7 @@
       </c>
     </row>
     <row r="230" s="1" customFormat="1" spans="1:6">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -6312,7 +6322,7 @@
       </c>
     </row>
     <row r="231" s="1" customFormat="1" spans="1:6">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -6332,7 +6342,7 @@
       </c>
     </row>
     <row r="232" s="1" customFormat="1" spans="1:6">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -6352,7 +6362,7 @@
       </c>
     </row>
     <row r="233" s="1" customFormat="1" spans="1:6">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -6372,7 +6382,7 @@
       </c>
     </row>
     <row r="234" s="1" customFormat="1" spans="1:6">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -6392,7 +6402,7 @@
       </c>
     </row>
     <row r="235" s="1" customFormat="1" spans="1:6">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -6412,7 +6422,7 @@
       </c>
     </row>
     <row r="236" s="1" customFormat="1" spans="1:6">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -6432,7 +6442,7 @@
       </c>
     </row>
     <row r="237" s="1" customFormat="1" spans="1:6">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -6452,7 +6462,7 @@
       </c>
     </row>
     <row r="238" s="1" customFormat="1" spans="1:6">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -6472,7 +6482,7 @@
       </c>
     </row>
     <row r="239" s="1" customFormat="1" spans="1:6">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -6492,7 +6502,7 @@
       </c>
     </row>
     <row r="240" s="1" customFormat="1" spans="1:6">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -6512,7 +6522,7 @@
       </c>
     </row>
     <row r="241" s="1" customFormat="1" spans="1:6">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -6532,7 +6542,7 @@
       </c>
     </row>
     <row r="242" s="1" customFormat="1" spans="1:6">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -6552,7 +6562,7 @@
       </c>
     </row>
     <row r="243" s="1" customFormat="1" spans="1:6">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -6572,7 +6582,7 @@
       </c>
     </row>
     <row r="244" s="1" customFormat="1" spans="1:6">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -6592,7 +6602,7 @@
       </c>
     </row>
     <row r="245" s="1" customFormat="1" spans="1:6">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -6612,7 +6622,7 @@
       </c>
     </row>
     <row r="246" s="1" customFormat="1" spans="1:6">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -6632,7 +6642,7 @@
       </c>
     </row>
     <row r="247" s="1" customFormat="1" spans="1:6">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -6652,7 +6662,7 @@
       </c>
     </row>
     <row r="248" s="1" customFormat="1" spans="1:6">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -6672,7 +6682,7 @@
       </c>
     </row>
     <row r="249" s="1" customFormat="1" spans="1:6">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -6692,7 +6702,7 @@
       </c>
     </row>
     <row r="250" s="1" customFormat="1" spans="1:6">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -6712,7 +6722,7 @@
       </c>
     </row>
     <row r="251" s="1" customFormat="1" spans="1:6">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -6732,7 +6742,7 @@
       </c>
     </row>
     <row r="252" s="1" customFormat="1" spans="1:6">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -6752,7 +6762,7 @@
       </c>
     </row>
     <row r="253" s="1" customFormat="1" spans="1:6">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -6772,7 +6782,7 @@
       </c>
     </row>
     <row r="254" s="1" customFormat="1" spans="1:6">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -6792,7 +6802,7 @@
       </c>
     </row>
     <row r="255" s="1" customFormat="1" spans="1:6">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -6812,7 +6822,7 @@
       </c>
     </row>
     <row r="256" s="1" customFormat="1" spans="1:6">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -6832,7 +6842,7 @@
       </c>
     </row>
     <row r="257" s="1" customFormat="1" spans="1:6">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -6852,7 +6862,7 @@
       </c>
     </row>
     <row r="258" s="1" customFormat="1" spans="1:6">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -6872,7 +6882,7 @@
       </c>
     </row>
     <row r="259" s="1" customFormat="1" spans="1:6">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -6892,7 +6902,7 @@
       </c>
     </row>
     <row r="260" s="1" customFormat="1" spans="1:6">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -6912,7 +6922,7 @@
       </c>
     </row>
     <row r="261" s="1" customFormat="1" spans="1:6">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -6932,7 +6942,7 @@
       </c>
     </row>
     <row r="262" s="1" customFormat="1" spans="1:6">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -6952,7 +6962,7 @@
       </c>
     </row>
     <row r="263" s="1" customFormat="1" spans="1:6">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -6972,7 +6982,7 @@
       </c>
     </row>
     <row r="264" s="1" customFormat="1" spans="1:6">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -6992,7 +7002,7 @@
       </c>
     </row>
     <row r="265" s="1" customFormat="1" spans="1:6">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -7012,7 +7022,7 @@
       </c>
     </row>
     <row r="266" s="1" customFormat="1" spans="1:6">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -7032,7 +7042,7 @@
       </c>
     </row>
     <row r="267" s="1" customFormat="1" spans="1:6">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -7052,7 +7062,7 @@
       </c>
     </row>
     <row r="268" s="1" customFormat="1" spans="1:6">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -7072,7 +7082,7 @@
       </c>
     </row>
     <row r="269" s="1" customFormat="1" spans="1:6">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -7092,7 +7102,7 @@
       </c>
     </row>
     <row r="270" s="1" customFormat="1" spans="1:6">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -7112,11 +7122,11 @@
       </c>
     </row>
     <row r="271" s="1" customFormat="1" spans="1:6">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>209</v>
@@ -7132,7 +7142,7 @@
       </c>
     </row>
     <row r="272" s="1" customFormat="1" spans="1:6">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -7152,7 +7162,7 @@
       </c>
     </row>
     <row r="273" s="1" customFormat="1" spans="1:6">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -7172,7 +7182,7 @@
       </c>
     </row>
     <row r="274" s="1" customFormat="1" spans="1:6">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -7192,7 +7202,7 @@
       </c>
     </row>
     <row r="275" s="1" customFormat="1" spans="1:6">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -7212,7 +7222,7 @@
       </c>
     </row>
     <row r="276" s="1" customFormat="1" spans="1:6">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -7232,7 +7242,7 @@
       </c>
     </row>
     <row r="277" s="1" customFormat="1" spans="1:6">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -7252,7 +7262,7 @@
       </c>
     </row>
     <row r="278" s="1" customFormat="1" spans="1:6">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -7272,7 +7282,7 @@
       </c>
     </row>
     <row r="279" s="1" customFormat="1" spans="1:6">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -7292,7 +7302,7 @@
       </c>
     </row>
     <row r="280" s="1" customFormat="1" spans="1:6">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -7312,7 +7322,7 @@
       </c>
     </row>
     <row r="281" s="1" customFormat="1" spans="1:6">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -7332,7 +7342,7 @@
       </c>
     </row>
     <row r="282" s="1" customFormat="1" spans="1:6">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -7352,7 +7362,7 @@
       </c>
     </row>
     <row r="283" s="1" customFormat="1" spans="1:6">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -7372,7 +7382,7 @@
       </c>
     </row>
     <row r="284" s="1" customFormat="1" spans="1:6">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -7391,792 +7401,957 @@
         <v>181</v>
       </c>
     </row>
-    <row r="285" s="2" customFormat="1" spans="1:5">
-      <c r="A285" s="3" t="s">
+    <row r="285" s="1" customFormat="1" spans="1:5">
+      <c r="A285" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="286" s="2" customFormat="1" spans="1:5">
-      <c r="A286" s="3" t="s">
+    <row r="286" s="1" customFormat="1" spans="1:5">
+      <c r="A286" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E286" s="1">
+        <v>98338</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" spans="1:7">
+      <c r="A287" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C287" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E287" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="288" s="1" customFormat="1" spans="1:5">
+      <c r="A288" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E288" s="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1" spans="1:5">
+      <c r="A289" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E289" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="1" spans="1:5">
+      <c r="A290" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E290" s="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" spans="1:5">
+      <c r="A291" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E291" s="1">
+        <v>22246</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" spans="1:5">
+      <c r="A292" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E292" s="1">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="1" spans="1:5">
+      <c r="A293" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E293" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" spans="1:5">
+      <c r="A294" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E294" s="1">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="1:5">
+      <c r="A295" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E295" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="1" spans="1:5">
+      <c r="A296" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E296" s="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" spans="1:5">
+      <c r="A297" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E297" s="1">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" spans="1:5">
+      <c r="A298" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E298" s="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="1" spans="1:5">
+      <c r="A299" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E299" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="300" s="1" customFormat="1" spans="1:5">
+      <c r="A300" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E300" s="1">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="1" spans="1:5">
+      <c r="A301" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E301" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="1" spans="1:5">
+      <c r="A302" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E302" s="1">
+        <v>10524</v>
+      </c>
+    </row>
+    <row r="303" s="1" customFormat="1" spans="1:5">
+      <c r="A303" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E303" s="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="304" s="1" customFormat="1" spans="1:5">
+      <c r="A304" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E304" s="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" spans="1:7">
+      <c r="A305" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E305" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="306" s="1" customFormat="1" spans="1:5">
+      <c r="A306" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E306" s="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" spans="1:5">
+      <c r="A307" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E307" s="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" spans="1:5">
+      <c r="A308" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E308" s="1">
+        <v>23353</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" spans="1:5">
+      <c r="A309" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E309" s="1">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" spans="1:5">
+      <c r="A310" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E310" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" spans="1:5">
+      <c r="A311" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E311" s="1">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" spans="1:5">
+      <c r="A312" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E312" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="313" s="1" customFormat="1" spans="1:5">
+      <c r="A313" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E313" s="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="314" s="1" customFormat="1" spans="1:5">
+      <c r="A314" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E314" s="1">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="315" s="1" customFormat="1" spans="1:5">
+      <c r="A315" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E315" s="1">
         <v>225</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E286" s="2">
-        <v>98338</v>
-      </c>
-    </row>
-    <row r="287" s="2" customFormat="1" spans="1:5">
-      <c r="A287" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C287" s="2" t="s">
+    </row>
+    <row r="316" s="1" customFormat="1" spans="1:5">
+      <c r="A316" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E316" s="1">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="317" s="1" customFormat="1" spans="1:5">
+      <c r="A317" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E317" s="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="318" s="1" customFormat="1" spans="1:5">
+      <c r="A318" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E318" s="1">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="319" s="1" customFormat="1" spans="1:5">
+      <c r="A319" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E319" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="320" s="1" customFormat="1" spans="1:5">
+      <c r="A320" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E320" s="1">
+        <v>99114</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="1" spans="1:5">
+      <c r="A321" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E287" s="2">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="288" s="2" customFormat="1" spans="1:5">
-      <c r="A288" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E288" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="289" s="2" customFormat="1" spans="1:5">
-      <c r="A289" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C289" s="2" t="s">
+      <c r="E321" s="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" spans="1:5">
+      <c r="A322" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E289" s="2">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="290" s="2" customFormat="1" spans="1:5">
-      <c r="A290" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" s="2" t="s">
+      <c r="E322" s="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" spans="1:5">
+      <c r="A323" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D323" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E290" s="2">
-        <v>22246</v>
-      </c>
-    </row>
-    <row r="291" s="2" customFormat="1" spans="1:5">
-      <c r="A291" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C291" s="2" t="s">
+      <c r="E323" s="1">
+        <v>17451</v>
+      </c>
+    </row>
+    <row r="324" s="1" customFormat="1" spans="1:5">
+      <c r="A324" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E291" s="2">
-        <v>4654</v>
-      </c>
-    </row>
-    <row r="292" s="2" customFormat="1" spans="1:5">
-      <c r="A292" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C292" s="2" t="s">
+      <c r="E324" s="1">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="325" s="1" customFormat="1" spans="1:5">
+      <c r="A325" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E325" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="293" s="2" customFormat="1" spans="1:5">
-      <c r="A293" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" s="2" t="s">
+    <row r="326" s="1" customFormat="1" spans="1:5">
+      <c r="A326" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E293" s="2">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="294" s="2" customFormat="1" spans="1:5">
-      <c r="A294" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C294" s="2" t="s">
+      <c r="E326" s="1">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="327" s="1" customFormat="1" spans="1:5">
+      <c r="A327" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E294" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="295" s="2" customFormat="1" spans="1:5">
-      <c r="A295" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C295" s="2" t="s">
+      <c r="E327" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328" s="1" customFormat="1" spans="1:5">
+      <c r="A328" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E295" s="2">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="296" s="2" customFormat="1" spans="1:5">
-      <c r="A296" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" s="2" t="s">
+      <c r="E328" s="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="329" s="1" customFormat="1" spans="1:5">
+      <c r="A329" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E296" s="2">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="297" s="2" customFormat="1" spans="1:5">
-      <c r="A297" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E297" s="2">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="298" s="2" customFormat="1" spans="1:5">
-      <c r="A298" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E298" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="299" s="2" customFormat="1" spans="1:5">
-      <c r="A299" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D299" s="2" t="s">
+      <c r="E329" s="1">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="330" s="1" customFormat="1" spans="1:5">
+      <c r="A330" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E299" s="2">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="300" s="2" customFormat="1" spans="1:5">
-      <c r="A300" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C300" s="2" t="s">
+      <c r="D330" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="E330" s="1">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="331" s="1" customFormat="1" spans="1:5">
+      <c r="A331" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E300" s="2">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="301" s="2" customFormat="1" spans="1:5">
-      <c r="A301" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C301" s="2" t="s">
+      <c r="D331" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E301" s="2">
-        <v>10524</v>
-      </c>
-    </row>
-    <row r="302" s="2" customFormat="1" spans="1:5">
-      <c r="A302" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E302" s="2">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="303" s="2" customFormat="1" spans="1:5">
-      <c r="A303" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E303" s="2">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="304" s="2" customFormat="1" spans="1:5">
-      <c r="A304" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E304" s="2">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="305" s="2" customFormat="1" spans="1:5">
-      <c r="A305" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E305" s="2">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="306" s="2" customFormat="1" spans="1:5">
-      <c r="A306" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C306" s="2" t="s">
+      <c r="E331" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="332" s="1" customFormat="1" spans="1:5">
+      <c r="A332" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E332" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="333" s="3" customFormat="1" spans="1:5">
+      <c r="A333" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D333" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E306" s="2">
-        <v>23353</v>
-      </c>
-    </row>
-    <row r="307" s="2" customFormat="1" spans="1:5">
-      <c r="A307" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C307" s="2" t="s">
+      <c r="E333" s="3">
+        <v>19631</v>
+      </c>
+    </row>
+    <row r="334" s="3" customFormat="1" spans="1:5">
+      <c r="A334" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E307" s="2">
-        <v>4698</v>
-      </c>
-    </row>
-    <row r="308" s="2" customFormat="1" spans="1:5">
-      <c r="A308" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E308" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="309" s="2" customFormat="1" spans="1:5">
-      <c r="A309" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E309" s="2">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="310" s="2" customFormat="1" spans="1:5">
-      <c r="A310" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C310" s="2" t="s">
+      <c r="E334" s="3">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="335" s="3" customFormat="1" spans="1:5">
+      <c r="A335" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E310" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="311" s="2" customFormat="1" spans="1:5">
-      <c r="A311" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C311" s="2" t="s">
+      <c r="E335" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="336" s="3" customFormat="1" spans="1:5">
+      <c r="A336" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E311" s="2">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="312" s="2" customFormat="1" spans="1:5">
-      <c r="A312" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C312" s="2" t="s">
+      <c r="E336" s="3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="337" s="3" customFormat="1" spans="1:5">
+      <c r="A337" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E312" s="2">
-        <v>3601</v>
-      </c>
-    </row>
-    <row r="313" s="2" customFormat="1" spans="1:5">
-      <c r="A313" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E313" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="314" s="2" customFormat="1" spans="1:5">
-      <c r="A314" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E314" s="2">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="315" s="2" customFormat="1" spans="1:5">
-      <c r="A315" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D315" s="2" t="s">
+      <c r="E337" s="3">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="338" s="3" customFormat="1" spans="1:5">
+      <c r="A338" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E315" s="2">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="316" s="2" customFormat="1" spans="1:5">
-      <c r="A316" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E316" s="2">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="317" s="2" customFormat="1" spans="1:5">
-      <c r="A317" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D317" s="2" t="s">
+      <c r="D338" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E338" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="339" s="3" customFormat="1" spans="1:5">
+      <c r="A339" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E317" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="318" s="2" customFormat="1" spans="1:5">
-      <c r="A318" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C318" s="2" t="s">
+      <c r="D339" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D318" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E318" s="2">
-        <v>99114</v>
-      </c>
-    </row>
-    <row r="319" s="2" customFormat="1" spans="1:5">
-      <c r="A319" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E319" s="2">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="320" s="2" customFormat="1" spans="1:5">
-      <c r="A320" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E320" s="2">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="321" s="2" customFormat="1" spans="1:5">
-      <c r="A321" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E321" s="2">
-        <v>17451</v>
-      </c>
-    </row>
-    <row r="322" s="2" customFormat="1" spans="1:5">
-      <c r="A322" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E322" s="2">
-        <v>4244</v>
-      </c>
-    </row>
-    <row r="323" s="2" customFormat="1" spans="1:5">
-      <c r="A323" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E323" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="324" s="2" customFormat="1" spans="1:5">
-      <c r="A324" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E324" s="2">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="325" s="2" customFormat="1" spans="1:5">
-      <c r="A325" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E325" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="326" s="2" customFormat="1" spans="1:5">
-      <c r="A326" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E326" s="2">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="327" s="2" customFormat="1" spans="1:5">
-      <c r="A327" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E327" s="2">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="328" s="2" customFormat="1" spans="1:5">
-      <c r="A328" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E328" s="2">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="329" s="2" customFormat="1" spans="1:5">
-      <c r="A329" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E329" s="2">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="330" s="2" customFormat="1" spans="1:5">
-      <c r="A330" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E330" s="2">
-        <v>67</v>
-      </c>
+      <c r="E339" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F284">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
